--- a/disagreement_matrix/engineering_version/rsj_matrix_records/Lymphography_withoutdupl_catremoved_self_sum.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/Lymphography_withoutdupl_catremoved_self_sum.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,4300 +394,3853 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0001100446232603736</v>
+        <v>0.0001249498697368705</v>
       </c>
       <c r="C2">
-        <v>0.0001246871862312751</v>
+        <v>0.0001386280624009518</v>
       </c>
       <c r="D2">
-        <v>5.73463765370087E-05</v>
+        <v>5.833506967211441E-05</v>
       </c>
       <c r="E2">
-        <v>5.73463765370087E-05</v>
+        <v>5.833506967211441E-05</v>
       </c>
       <c r="F2">
-        <v>7.104754146405115E-05</v>
+        <v>7.427292575946469E-05</v>
       </c>
       <c r="G2">
-        <v>0.0002489595711352371</v>
+        <v>0.0002326760137512141</v>
       </c>
       <c r="H2">
-        <v>9.39679773624686E-05</v>
-      </c>
-      <c r="I2">
-        <v>7.883739353702957E-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.0001091195662711725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00059251729212557</v>
+        <v>0.0006892439722344045</v>
       </c>
       <c r="C3">
-        <v>0.0005863738056985868</v>
+        <v>0.0006820975724159049</v>
       </c>
       <c r="D3">
-        <v>0.0006978947740364831</v>
+        <v>0.0008096548506764575</v>
       </c>
       <c r="E3">
-        <v>0.0006978947740364831</v>
+        <v>0.0008096548506764575</v>
       </c>
       <c r="F3">
-        <v>0.004155662737332868</v>
+        <v>0.00417237732369538</v>
       </c>
       <c r="G3">
-        <v>0.0006766234601902339</v>
+        <v>0.0007722243620352189</v>
       </c>
       <c r="H3">
-        <v>0.0005812165916186061</v>
-      </c>
-      <c r="I3">
-        <v>0.0005853348388149592</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.0006760984521764164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0008753210255478839</v>
+        <v>0.001018214919467806</v>
       </c>
       <c r="C4">
-        <v>0.0006845678554079494</v>
+        <v>0.0007859569945269557</v>
       </c>
       <c r="D4">
-        <v>0.0003799192592361066</v>
+        <v>0.0004199872751734927</v>
       </c>
       <c r="E4">
-        <v>0.001633864623975225</v>
+        <v>0.001586907146300238</v>
       </c>
       <c r="F4">
-        <v>0.004396498302613183</v>
+        <v>0.004458489564102506</v>
       </c>
       <c r="G4">
-        <v>0.001674449176899511</v>
+        <v>0.001927811356602754</v>
       </c>
       <c r="H4">
-        <v>0.001674390397446494</v>
-      </c>
-      <c r="I4">
-        <v>0.000900828711557808</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.001921565342774927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.382092105885304E-05</v>
+        <v>6.260636276417893E-05</v>
       </c>
       <c r="C5">
-        <v>5.128176494149979E-05</v>
+        <v>5.96526938610467E-05</v>
       </c>
       <c r="D5">
-        <v>4.174397289175086E-05</v>
+        <v>4.855787397606444E-05</v>
       </c>
       <c r="E5">
-        <v>4.174397289175086E-05</v>
+        <v>4.855787397606444E-05</v>
       </c>
       <c r="F5">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="G5">
-        <v>0.0003076254642317837</v>
+        <v>0.0003007492357609075</v>
       </c>
       <c r="H5">
-        <v>4.741328839994685E-05</v>
-      </c>
-      <c r="I5">
-        <v>4.908724491381776E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>5.51526953043641E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.00059251729212557</v>
+        <v>0.0006892439722344045</v>
       </c>
       <c r="C6">
-        <v>0.0005863738056985868</v>
+        <v>0.0006820975724159049</v>
       </c>
       <c r="D6">
-        <v>0.0006924163599247876</v>
+        <v>0.0008032820950630442</v>
       </c>
       <c r="E6">
-        <v>0.0006924163599247876</v>
+        <v>0.0008032820950630442</v>
       </c>
       <c r="F6">
-        <v>0.004158451711795413</v>
+        <v>0.004175621593350699</v>
       </c>
       <c r="G6">
-        <v>0.0006662828363187739</v>
+        <v>0.0007601956494407546</v>
       </c>
       <c r="H6">
-        <v>0.0005833893617292196</v>
-      </c>
-      <c r="I6">
-        <v>0.0005853348388149592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.0006786259231993735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0009482609897145241</v>
+        <v>0.001055575947594761</v>
       </c>
       <c r="C7">
-        <v>0.0001432242852979659</v>
+        <v>0.0001472904581396014</v>
       </c>
       <c r="D7">
-        <v>0.0003848278028884604</v>
+        <v>0.0004353092313501703</v>
       </c>
       <c r="E7">
-        <v>0.0003848278028884604</v>
+        <v>0.0004353092313501703</v>
       </c>
       <c r="F7">
-        <v>0.001086625467985102</v>
+        <v>0.001260720731549277</v>
       </c>
       <c r="G7">
-        <v>0.0002545645395515082</v>
+        <v>0.0002702255963444274</v>
       </c>
       <c r="H7">
-        <v>0.001018122961403675</v>
-      </c>
-      <c r="I7">
-        <v>0.0001545363691362998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.00112524091596387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0008638509384729555</v>
+        <v>0.000986428309802573</v>
       </c>
       <c r="C8">
-        <v>0.001177167629137724</v>
+        <v>0.001347553417463399</v>
       </c>
       <c r="D8">
-        <v>0.000699594030766339</v>
+        <v>0.0008027783321974791</v>
       </c>
       <c r="E8">
-        <v>0.003231563066017595</v>
+        <v>0.003313516518446135</v>
       </c>
       <c r="F8">
-        <v>0.005147250326102298</v>
+        <v>0.005329700962027435</v>
       </c>
       <c r="G8">
-        <v>0.001055178156638947</v>
+        <v>0.001216055191247857</v>
       </c>
       <c r="H8">
-        <v>0.0009147607495323915</v>
-      </c>
-      <c r="I8">
-        <v>0.001024732994783444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.001038129912327814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.382092105885304E-05</v>
+        <v>6.260636276417893E-05</v>
       </c>
       <c r="C9">
-        <v>5.128176494149979E-05</v>
+        <v>5.96526938610467E-05</v>
       </c>
       <c r="D9">
-        <v>4.174397289175086E-05</v>
+        <v>4.855787397606444E-05</v>
       </c>
       <c r="E9">
-        <v>4.174397289175086E-05</v>
+        <v>4.855787397606444E-05</v>
       </c>
       <c r="F9">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="G9">
-        <v>0.0003076254642317837</v>
+        <v>0.0003007492357609075</v>
       </c>
       <c r="H9">
-        <v>4.741328839994685E-05</v>
-      </c>
-      <c r="I9">
-        <v>4.908724491381776E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>5.51526953043641E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.00059251729212557</v>
+        <v>0.0006892439722344045</v>
       </c>
       <c r="C10">
-        <v>0.0005863738056985868</v>
+        <v>0.0006820975724159049</v>
       </c>
       <c r="D10">
-        <v>0.0006924163599247876</v>
+        <v>0.0008032820950630442</v>
       </c>
       <c r="E10">
-        <v>0.0006924163599247876</v>
+        <v>0.0008032820950630442</v>
       </c>
       <c r="F10">
-        <v>0.004169119983777127</v>
+        <v>0.004188031442035148</v>
       </c>
       <c r="G10">
-        <v>0.0006769511083004877</v>
+        <v>0.0007726054981252028</v>
       </c>
       <c r="H10">
-        <v>0.0005833893617292196</v>
-      </c>
-      <c r="I10">
-        <v>0.0005853348388149592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.0006786259231993735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.834250694715762E-05</v>
+        <v>5.623360715076567E-05</v>
       </c>
       <c r="C11">
-        <v>4.580335082980437E-05</v>
+        <v>5.327993824763345E-05</v>
       </c>
       <c r="D11">
-        <v>4.174397289175086E-05</v>
+        <v>4.855787397606444E-05</v>
       </c>
       <c r="E11">
-        <v>4.174397289175086E-05</v>
+        <v>4.855787397606444E-05</v>
       </c>
       <c r="F11">
-        <v>2.186082281793273E-05</v>
+        <v>2.542883450189276E-05</v>
       </c>
       <c r="G11">
-        <v>0.0002850082367499218</v>
+        <v>0.0002808125411472597</v>
       </c>
       <c r="H11">
-        <v>4.193487428825143E-05</v>
-      </c>
-      <c r="I11">
-        <v>4.360883080212234E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>4.877993969095085E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.067966428767894E-05</v>
+        <v>5.895230133079141E-05</v>
       </c>
       <c r="C12">
-        <v>5.204023438438885E-05</v>
+        <v>6.053498211111799E-05</v>
       </c>
       <c r="D12">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="E12">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="F12">
-        <v>2.186082281793273E-05</v>
+        <v>2.542883450189276E-05</v>
       </c>
       <c r="G12">
-        <v>0.0002711494904137528</v>
+        <v>0.0002586765524949187</v>
       </c>
       <c r="H12">
-        <v>5.269052918368423E-05</v>
-      </c>
-      <c r="I12">
-        <v>4.877954675289046E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>6.129143639662665E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.067966428767894E-05</v>
+        <v>5.895230133079141E-05</v>
       </c>
       <c r="C13">
-        <v>5.204023438438885E-05</v>
+        <v>6.053498211111799E-05</v>
       </c>
       <c r="D13">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="E13">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="F13">
-        <v>2.186082281793273E-05</v>
+        <v>2.542883450189276E-05</v>
       </c>
       <c r="G13">
-        <v>0.0002711494904137528</v>
+        <v>0.0002586765524949187</v>
       </c>
       <c r="H13">
-        <v>5.269052918368423E-05</v>
-      </c>
-      <c r="I13">
-        <v>4.877954675289046E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>6.129143639662665E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.067966428767894E-05</v>
+        <v>5.895230133079141E-05</v>
       </c>
       <c r="C14">
-        <v>5.204023438438885E-05</v>
+        <v>6.053498211111799E-05</v>
       </c>
       <c r="D14">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="E14">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="F14">
-        <v>2.186082281793273E-05</v>
+        <v>2.542883450189276E-05</v>
       </c>
       <c r="G14">
-        <v>0.0002711494904137528</v>
+        <v>0.0002586765524949187</v>
       </c>
       <c r="H14">
-        <v>5.269052918368423E-05</v>
-      </c>
-      <c r="I14">
-        <v>4.877954675289046E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>6.129143639662665E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0001409410447448525</v>
+        <v>0.0001607756935282266</v>
       </c>
       <c r="C15">
-        <v>0.0001213466622099311</v>
+        <v>0.0001263475927036771</v>
       </c>
       <c r="D15">
-        <v>7.893204967760243E-05</v>
+        <v>7.618245767800111E-05</v>
       </c>
       <c r="E15">
-        <v>7.893204967760243E-05</v>
+        <v>7.618245767800111E-05</v>
       </c>
       <c r="F15">
-        <v>0.0001035900428280357</v>
+        <v>0.0001048658249921779</v>
       </c>
       <c r="G15">
-        <v>0.0001848428803406277</v>
+        <v>0.0001783662277377917</v>
       </c>
       <c r="H15">
-        <v>0.0001312790621969502</v>
-      </c>
-      <c r="I15">
-        <v>9.07778198737131E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.0001486534187832874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0001400122834511993</v>
+        <v>0.0001619483696601311</v>
       </c>
       <c r="C16">
-        <v>0.00012254598188467</v>
+        <v>0.0001277426992132696</v>
       </c>
       <c r="D16">
-        <v>7.893204967760243E-05</v>
+        <v>7.618245767800111E-05</v>
       </c>
       <c r="E16">
-        <v>7.893204967760243E-05</v>
+        <v>7.618245767800111E-05</v>
       </c>
       <c r="F16">
-        <v>0.0001035900428280357</v>
+        <v>0.0001048658249921779</v>
       </c>
       <c r="G16">
-        <v>0.0001848428803406277</v>
+        <v>0.0001783662277377917</v>
       </c>
       <c r="H16">
-        <v>0.0001392864838008973</v>
-      </c>
-      <c r="I16">
-        <v>9.703959027557856E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.0001484309884055994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.067966428767894E-05</v>
+        <v>5.895230133079141E-05</v>
       </c>
       <c r="C17">
-        <v>5.204023438438885E-05</v>
+        <v>6.053498211111799E-05</v>
       </c>
       <c r="D17">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="E17">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="F17">
-        <v>2.186082281793273E-05</v>
+        <v>2.542883450189276E-05</v>
       </c>
       <c r="G17">
-        <v>0.0002711494904137528</v>
+        <v>0.0002586765524949187</v>
       </c>
       <c r="H17">
-        <v>5.269052918368423E-05</v>
-      </c>
-      <c r="I17">
-        <v>4.877954675289046E-05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>6.129143639662665E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0009712089049869244</v>
+        <v>0.001080851211692741</v>
       </c>
       <c r="C18">
-        <v>0.0001479202868845776</v>
+        <v>0.0001435820232719024</v>
       </c>
       <c r="D18">
-        <v>0.0003656482238497226</v>
+        <v>0.0004129986196494067</v>
       </c>
       <c r="E18">
-        <v>0.0003656482238497226</v>
+        <v>0.0004129986196494067</v>
       </c>
       <c r="F18">
-        <v>0.001114080800879814</v>
+        <v>0.001292658099418088</v>
       </c>
       <c r="G18">
-        <v>0.0002141587282087952</v>
+        <v>0.0002253932644777871</v>
       </c>
       <c r="H18">
-        <v>0.001028600018502233</v>
-      </c>
-      <c r="I18">
-        <v>0.0001617749368844229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.00113742833427063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0006777856285053562</v>
+        <v>0.0007539125434359404</v>
       </c>
       <c r="C19">
-        <v>0.0009123834338288955</v>
+        <v>0.001035923333071239</v>
       </c>
       <c r="D19">
-        <v>0.001478493125041</v>
+        <v>0.001570497313019447</v>
       </c>
       <c r="E19">
-        <v>0.002971708723211052</v>
+        <v>0.002997286829257559</v>
       </c>
       <c r="F19">
-        <v>0.00216026083640598</v>
+        <v>0.00249208773293989</v>
       </c>
       <c r="G19">
-        <v>0.001055605675203631</v>
+        <v>0.001121090184969658</v>
       </c>
       <c r="H19">
-        <v>0.0007084644754339559</v>
-      </c>
-      <c r="I19">
-        <v>0.0007135795937464749</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.0007905545981821106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.000579849748284509</v>
+        <v>0.0006683720181973502</v>
       </c>
       <c r="C20">
-        <v>0.0005659320617802354</v>
+        <v>0.0006543480591781762</v>
       </c>
       <c r="D20">
-        <v>0.0008331436842619721</v>
+        <v>0.0009581540671108513</v>
       </c>
       <c r="E20">
-        <v>0.001041993308388646</v>
+        <v>0.001065072315775127</v>
       </c>
       <c r="F20">
-        <v>0.004270614563268112</v>
+        <v>0.004301299315371874</v>
       </c>
       <c r="G20">
-        <v>0.0006033524141072086</v>
+        <v>0.0006901859052678761</v>
       </c>
       <c r="H20">
-        <v>0.0005962023277032003</v>
-      </c>
-      <c r="I20">
-        <v>0.0007371016792868793</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.0006823801709730574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0009696526527148961</v>
+        <v>0.001079040903964948</v>
       </c>
       <c r="C21">
-        <v>0.0001467209672098386</v>
+        <v>0.0001421869167623098</v>
       </c>
       <c r="D21">
-        <v>0.0003656482238497226</v>
+        <v>0.0004129986196494067</v>
       </c>
       <c r="E21">
-        <v>0.0003656482238497226</v>
+        <v>0.0004129986196494067</v>
       </c>
       <c r="F21">
-        <v>0.00111269026632192</v>
+        <v>0.001291040562530807</v>
       </c>
       <c r="G21">
-        <v>0.0002147749325607261</v>
+        <v>0.0002261100631101493</v>
       </c>
       <c r="H21">
-        <v>0.001034492516863128</v>
-      </c>
-      <c r="I21">
-        <v>0.000170031106752432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.001134678797532786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.001562236001048307</v>
+        <v>0.001773716748225629</v>
       </c>
       <c r="C22">
-        <v>0.001223593281929907</v>
+        <v>0.001404150737017868</v>
       </c>
       <c r="D22">
-        <v>0.002071867995801648</v>
+        <v>0.002207004856570566</v>
       </c>
       <c r="E22">
-        <v>0.002625386812871094</v>
+        <v>0.002705019529734772</v>
       </c>
       <c r="F22">
-        <v>0.008892192373502212</v>
+        <v>0.009357956238469503</v>
       </c>
       <c r="G22">
-        <v>0.001344037672599308</v>
+        <v>0.001533009797766075</v>
       </c>
       <c r="H22">
-        <v>0.001620536369202001</v>
-      </c>
-      <c r="I22">
-        <v>0.001468102101666211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.001808422830179221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.067966428767894E-05</v>
+        <v>5.895230133079141E-05</v>
       </c>
       <c r="C23">
-        <v>5.204023438438885E-05</v>
+        <v>6.053498211111799E-05</v>
       </c>
       <c r="D23">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="E23">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="F23">
-        <v>1.807236996288713E-05</v>
+        <v>2.102192335828231E-05</v>
       </c>
       <c r="G23">
-        <v>0.0002673610375587072</v>
+        <v>0.0002542696413513082</v>
       </c>
       <c r="H23">
-        <v>5.269052918368423E-05</v>
-      </c>
-      <c r="I23">
-        <v>4.877954675289046E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>6.129143639662665E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.150008524894106E-05</v>
+        <v>3.664168963002788E-05</v>
       </c>
       <c r="C24">
-        <v>3.286065534565098E-05</v>
+        <v>3.822437041035446E-05</v>
       </c>
       <c r="D24">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="E24">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="F24">
-        <v>1.807236996288713E-05</v>
+        <v>2.102192335828231E-05</v>
       </c>
       <c r="G24">
-        <v>0.0001906427214037556</v>
+        <v>0.0001873378062490177</v>
       </c>
       <c r="H24">
-        <v>3.351095014494637E-05</v>
-      </c>
-      <c r="I24">
-        <v>2.959996771415259E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>3.898082469586312E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.150008524894106E-05</v>
+        <v>3.664168963002788E-05</v>
       </c>
       <c r="C25">
-        <v>3.286065534565098E-05</v>
+        <v>3.822437041035446E-05</v>
       </c>
       <c r="D25">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="E25">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="F25">
-        <v>1.807236996288713E-05</v>
+        <v>2.102192335828231E-05</v>
       </c>
       <c r="G25">
-        <v>0.0001906427214037556</v>
+        <v>0.0001873378062490177</v>
       </c>
       <c r="H25">
-        <v>3.351095014494637E-05</v>
-      </c>
-      <c r="I25">
-        <v>2.959996771415259E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>3.898082469586312E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7.388484204820898E-05</v>
+        <v>7.826995051431154E-05</v>
       </c>
       <c r="C26">
-        <v>5.253702976849794E-05</v>
+        <v>6.111287847094962E-05</v>
       </c>
       <c r="D26">
-        <v>6.160908986053607E-05</v>
+        <v>6.348181750969289E-05</v>
       </c>
       <c r="E26">
-        <v>6.160908986053607E-05</v>
+        <v>6.348181750969289E-05</v>
       </c>
       <c r="F26">
-        <v>6.160908986053607E-05</v>
+        <v>6.348181750969289E-05</v>
       </c>
       <c r="G26">
-        <v>0.0001039305657187081</v>
+        <v>0.0001091131512550253</v>
       </c>
       <c r="H26">
-        <v>5.370966168596999E-05</v>
-      </c>
-      <c r="I26">
-        <v>3.81921465952689E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>6.206708540634926E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.150008524894106E-05</v>
+        <v>3.664168963002788E-05</v>
       </c>
       <c r="C27">
-        <v>3.286065534565098E-05</v>
+        <v>3.822437041035446E-05</v>
       </c>
       <c r="D27">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="E27">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="F27">
-        <v>1.807236996288713E-05</v>
+        <v>2.102192335828231E-05</v>
       </c>
       <c r="G27">
-        <v>0.0001906427214037556</v>
+        <v>0.0001873378062490177</v>
       </c>
       <c r="H27">
-        <v>3.351095014494637E-05</v>
-      </c>
-      <c r="I27">
-        <v>2.959996771415259E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>3.898082469586312E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.00059251729212557</v>
+        <v>0.0006892439722344045</v>
       </c>
       <c r="C28">
-        <v>0.0005863738056985868</v>
+        <v>0.0006820975724159049</v>
       </c>
       <c r="D28">
-        <v>0.000673237094367347</v>
+        <v>0.0007809718480188502</v>
       </c>
       <c r="E28">
-        <v>0.000673237094367347</v>
+        <v>0.0007809718480188502</v>
       </c>
       <c r="F28">
-        <v>0.00417737615363442</v>
+        <v>0.004188031442022683</v>
       </c>
       <c r="G28">
-        <v>0.0006385925771963213</v>
+        <v>0.000727985004049279</v>
       </c>
       <c r="H28">
-        <v>0.0005833893617292196</v>
-      </c>
-      <c r="I28">
-        <v>0.0005935910086829682</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.0006786259231993735</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.809893279100249E-05</v>
+        <v>4.431778746753071E-05</v>
       </c>
       <c r="C29">
-        <v>3.286065534565098E-05</v>
+        <v>3.822437041035446E-05</v>
       </c>
       <c r="D29">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="E29">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="F29">
-        <v>1.807236996288713E-05</v>
+        <v>2.102192335828231E-05</v>
       </c>
       <c r="G29">
-        <v>0.0001972481563739715</v>
+        <v>0.0001950215669007753</v>
       </c>
       <c r="H29">
-        <v>3.351753757310076E-05</v>
-      </c>
-      <c r="I29">
-        <v>2.959996771415259E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>3.898848751011793E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0009751655799401976</v>
+        <v>0.001091450752649396</v>
       </c>
       <c r="C30">
-        <v>0.0001437872197528016</v>
+        <v>0.0001421869167623098</v>
       </c>
       <c r="D30">
-        <v>0.0003656482238497226</v>
+        <v>0.0004129986196494067</v>
       </c>
       <c r="E30">
-        <v>0.0003656482238497226</v>
+        <v>0.0004129986196494067</v>
       </c>
       <c r="F30">
-        <v>0.00111269026632192</v>
+        <v>0.001291040562530807</v>
       </c>
       <c r="G30">
-        <v>0.0002254432045424398</v>
+        <v>0.0002385199117945975</v>
       </c>
       <c r="H30">
-        <v>0.001028416186716176</v>
-      </c>
-      <c r="I30">
-        <v>0.000155865684392031</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.001134678797532786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0001392214425094842</v>
+        <v>0.0001619483696601311</v>
       </c>
       <c r="C31">
-        <v>0.0001223613544296692</v>
+        <v>0.0001275279316498364</v>
       </c>
       <c r="D31">
-        <v>7.893204967760243E-05</v>
+        <v>7.618245767800111E-05</v>
       </c>
       <c r="E31">
-        <v>7.893204967760243E-05</v>
+        <v>7.618245767800111E-05</v>
       </c>
       <c r="F31">
-        <v>9.81116287163403E-05</v>
+        <v>9.849306937876464E-05</v>
       </c>
       <c r="G31">
-        <v>0.0001793644662289322</v>
+        <v>0.0001719934721243784</v>
       </c>
       <c r="H31">
-        <v>0.0001391018563458965</v>
-      </c>
-      <c r="I31">
-        <v>9.624874933386341E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.0001482162208421662</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0005835807339468934</v>
+        <v>0.0006691681202146834</v>
       </c>
       <c r="C32">
-        <v>0.0005646821065954221</v>
+        <v>0.0006537080828090161</v>
       </c>
       <c r="D32">
-        <v>0.0008303547097994277</v>
+        <v>0.0009549097974555322</v>
       </c>
       <c r="E32">
-        <v>0.001040987459275038</v>
+        <v>0.001063902263556675</v>
       </c>
       <c r="F32">
-        <v>0.004270614563268112</v>
+        <v>0.004301299315371874</v>
       </c>
       <c r="G32">
-        <v>0.0006052433066408297</v>
+        <v>0.0006923854826934435</v>
       </c>
       <c r="H32">
-        <v>0.0005877277567682882</v>
-      </c>
-      <c r="I32">
-        <v>0.0007394484945197375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.0006725221411864016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.001402442501470406</v>
+        <v>0.001612052707020471</v>
       </c>
       <c r="C33">
-        <v>0.0003875410795203891</v>
+        <v>0.0004319095428613316</v>
       </c>
       <c r="D33">
-        <v>0.0008638223785173456</v>
+        <v>0.0009926815511659738</v>
       </c>
       <c r="E33">
-        <v>0.001222202170317764</v>
+        <v>0.001408147357723719</v>
       </c>
       <c r="F33">
-        <v>0.003757123488858922</v>
+        <v>0.003705102443844311</v>
       </c>
       <c r="G33">
-        <v>0.0009570993703515249</v>
+        <v>0.00109063128370841</v>
       </c>
       <c r="H33">
-        <v>0.0009863461277280967</v>
-      </c>
-      <c r="I33">
-        <v>0.0006743664907071321</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.00111495675085794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.001399511036720098</v>
+        <v>0.001609799650941565</v>
       </c>
       <c r="C34">
-        <v>0.0002629352436175946</v>
+        <v>0.0002849640879411717</v>
       </c>
       <c r="D34">
-        <v>0.0007301718602674176</v>
+        <v>0.0008468167951893817</v>
       </c>
       <c r="E34">
-        <v>0.001601748528010485</v>
+        <v>0.001703789237102281</v>
       </c>
       <c r="F34">
-        <v>0.00478454963110905</v>
+        <v>0.004900254103046966</v>
       </c>
       <c r="G34">
-        <v>0.0009480735983918609</v>
+        <v>0.001081810376755492</v>
       </c>
       <c r="H34">
-        <v>0.001498382667390819</v>
-      </c>
-      <c r="I34">
-        <v>0.0007907848427242802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.001710582358174155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.809893279100249E-05</v>
+        <v>4.431778746753071E-05</v>
       </c>
       <c r="C35">
-        <v>3.286065534565098E-05</v>
+        <v>3.822437041035446E-05</v>
       </c>
       <c r="D35">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="E35">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="F35">
-        <v>1.807236996288713E-05</v>
+        <v>2.102192335828231E-05</v>
       </c>
       <c r="G35">
-        <v>0.0001972481563739715</v>
+        <v>0.0001950215669007753</v>
       </c>
       <c r="H35">
-        <v>3.351753757310076E-05</v>
-      </c>
-      <c r="I35">
-        <v>2.959996771415259E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>3.898848751011793E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.809893279100249E-05</v>
+        <v>4.431778746753071E-05</v>
       </c>
       <c r="C36">
-        <v>3.286065534565098E-05</v>
+        <v>3.822437041035446E-05</v>
       </c>
       <c r="D36">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="E36">
-        <v>2.256439385301299E-05</v>
+        <v>2.624726227530091E-05</v>
       </c>
       <c r="F36">
-        <v>1.807236996288713E-05</v>
+        <v>2.102192335828231E-05</v>
       </c>
       <c r="G36">
-        <v>0.0001972481563739715</v>
+        <v>0.0001950215669007753</v>
       </c>
       <c r="H36">
-        <v>3.351753757310076E-05</v>
-      </c>
-      <c r="I36">
-        <v>2.959996771415259E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>3.898848751011793E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7.388484204820898E-05</v>
+        <v>7.826995051431154E-05</v>
       </c>
       <c r="C37">
-        <v>5.253702976849794E-05</v>
+        <v>6.111287847094962E-05</v>
       </c>
       <c r="D37">
-        <v>6.09055188254558E-05</v>
+        <v>6.266338973628473E-05</v>
       </c>
       <c r="E37">
-        <v>6.09055188254558E-05</v>
+        <v>6.266338973628473E-05</v>
       </c>
       <c r="F37">
-        <v>6.160908986053607E-05</v>
+        <v>6.348181750969289E-05</v>
       </c>
       <c r="G37">
-        <v>0.0001025234236485476</v>
+        <v>0.000107476295708209</v>
       </c>
       <c r="H37">
-        <v>5.370966168596999E-05</v>
-      </c>
-      <c r="I37">
-        <v>3.81921465952689E-05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>6.206708540634926E-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.809893279100249E-05</v>
+        <v>4.431778746753071E-05</v>
       </c>
       <c r="C38">
-        <v>3.286065534565098E-05</v>
+        <v>3.822437041035446E-05</v>
       </c>
       <c r="D38">
-        <v>2.186082281793273E-05</v>
+        <v>2.542883450189276E-05</v>
       </c>
       <c r="E38">
-        <v>2.186082281793273E-05</v>
+        <v>2.542883450189276E-05</v>
       </c>
       <c r="F38">
-        <v>1.807236996288713E-05</v>
+        <v>2.102192335828231E-05</v>
       </c>
       <c r="G38">
-        <v>0.000195841014303811</v>
+        <v>0.0001933847113539591</v>
       </c>
       <c r="H38">
-        <v>3.351753757310076E-05</v>
-      </c>
-      <c r="I38">
-        <v>2.959996771415259E-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>3.898848751011793E-05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.809893279100249E-05</v>
+        <v>4.431778746753071E-05</v>
       </c>
       <c r="C39">
-        <v>3.65190568438998E-05</v>
+        <v>4.247999954111207E-05</v>
       </c>
       <c r="D39">
-        <v>2.186082281793273E-05</v>
+        <v>2.542883450189276E-05</v>
       </c>
       <c r="E39">
-        <v>2.186082281793273E-05</v>
+        <v>2.542883450189276E-05</v>
       </c>
       <c r="F39">
-        <v>1.165783561484621E-05</v>
+        <v>1.35602275206781E-05</v>
       </c>
       <c r="G39">
-        <v>0.0001932466302773501</v>
+        <v>0.0001901786446471124</v>
       </c>
       <c r="H39">
-        <v>3.351753757310076E-05</v>
-      </c>
-      <c r="I39">
-        <v>2.976171653748388E-05</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>3.898848751011793E-05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.0001410511218137112</v>
+        <v>0.0001640767409038942</v>
       </c>
       <c r="C40">
-        <v>0.0001235606741044082</v>
+        <v>0.0001275279316498364</v>
       </c>
       <c r="D40">
-        <v>7.822847864252215E-05</v>
+        <v>7.536402990459295E-05</v>
       </c>
       <c r="E40">
-        <v>7.822847864252215E-05</v>
+        <v>7.536402990459295E-05</v>
       </c>
       <c r="F40">
-        <v>9.81116287163403E-05</v>
+        <v>9.849306937876464E-05</v>
       </c>
       <c r="G40">
-        <v>0.0001779573241587717</v>
+        <v>0.0001703566165775622</v>
       </c>
       <c r="H40">
-        <v>0.0001407403207669682</v>
-      </c>
-      <c r="I40">
-        <v>9.725685412544716E-05</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.0001503445920859293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.469746684640926E-05</v>
+        <v>5.199352064223194E-05</v>
       </c>
       <c r="C41">
-        <v>4.057843478195332E-05</v>
+        <v>4.720206381268109E-05</v>
       </c>
       <c r="D41">
-        <v>2.186082281793273E-05</v>
+        <v>2.542883450189276E-05</v>
       </c>
       <c r="E41">
-        <v>2.186082281793273E-05</v>
+        <v>2.542883450189276E-05</v>
       </c>
       <c r="F41">
-        <v>2.437150691517854E-05</v>
+        <v>2.618009068183476E-05</v>
       </c>
       <c r="G41">
-        <v>0.0001932466302773501</v>
+        <v>0.0001901786446471124</v>
       </c>
       <c r="H41">
-        <v>3.370843896960133E-05</v>
-      </c>
-      <c r="I41">
-        <v>3.162657444785536E-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>3.921055322500434E-05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.001391362945274905</v>
+        <v>0.001564425284268795</v>
       </c>
       <c r="C42">
-        <v>0.0007819878829684553</v>
+        <v>0.0008741554636973545</v>
       </c>
       <c r="D42">
-        <v>0.0005958589020641849</v>
+        <v>0.0006929636333575309</v>
       </c>
       <c r="E42">
-        <v>0.002649271043132669</v>
+        <v>0.002635044256667626</v>
       </c>
       <c r="F42">
-        <v>0.003054113567519617</v>
+        <v>0.003507249395342468</v>
       </c>
       <c r="G42">
-        <v>0.0008304259937033857</v>
+        <v>0.0009270033134377059</v>
       </c>
       <c r="H42">
-        <v>0.0009990004997357444</v>
-      </c>
-      <c r="I42">
-        <v>0.0005575163692858062</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.001134437122403963</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7.388484204820898E-05</v>
+        <v>7.826995051431154E-05</v>
       </c>
       <c r="C43">
-        <v>5.253702976849794E-05</v>
+        <v>6.111287847094962E-05</v>
       </c>
       <c r="D43">
-        <v>5.711706597041021E-05</v>
+        <v>5.825647859267428E-05</v>
       </c>
       <c r="E43">
-        <v>5.711706597041021E-05</v>
+        <v>5.825647859267428E-05</v>
       </c>
       <c r="F43">
-        <v>6.160908986053607E-05</v>
+        <v>6.348181750969289E-05</v>
       </c>
       <c r="G43">
-        <v>9.494651793845641E-05</v>
+        <v>9.866247342098811E-05</v>
       </c>
       <c r="H43">
-        <v>5.370966168596999E-05</v>
-      </c>
-      <c r="I43">
-        <v>3.81921465952689E-05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>6.206708540634926E-05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0006262146748416555</v>
+        <v>0.0006917650605518304</v>
       </c>
       <c r="C44">
-        <v>0.000324848524144232</v>
+        <v>0.0003607352565988014</v>
       </c>
       <c r="D44">
-        <v>0.001091666672811213</v>
+        <v>0.001096810643768188</v>
       </c>
       <c r="E44">
-        <v>0.001072400186188262</v>
+        <v>0.001085397435665557</v>
       </c>
       <c r="F44">
-        <v>0.00247643743199296</v>
+        <v>0.002863911615022734</v>
       </c>
       <c r="G44">
-        <v>0.0003648946761556202</v>
+        <v>0.0004186496151036246</v>
       </c>
       <c r="H44">
-        <v>0.000700450826617288</v>
-      </c>
-      <c r="I44">
-        <v>0.0003998572400108787</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.0007612402402484241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.001716845560452496</v>
+        <v>0.001955312900206569</v>
       </c>
       <c r="C45">
-        <v>0.001820327094319954</v>
+        <v>0.002117491572654773</v>
       </c>
       <c r="D45">
-        <v>0.002224763655013086</v>
+        <v>0.002587951693025096</v>
       </c>
       <c r="E45">
-        <v>0.002986226431093152</v>
+        <v>0.003473721932684421</v>
       </c>
       <c r="F45">
-        <v>0.01329527456159712</v>
+        <v>0.01332709554589434</v>
       </c>
       <c r="G45">
-        <v>0.002040534176758055</v>
+        <v>0.00237364707534394</v>
       </c>
       <c r="H45">
-        <v>0.00173871112521354</v>
-      </c>
-      <c r="I45">
-        <v>0.001908732654248897</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.001982640375104656</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.001602862616723894</v>
+        <v>0.001860791472926062</v>
       </c>
       <c r="C46">
-        <v>0.001914779090470524</v>
+        <v>0.002167562185668276</v>
       </c>
       <c r="D46">
-        <v>0.001902969477069578</v>
+        <v>0.002209890252225883</v>
       </c>
       <c r="E46">
-        <v>0.002648349443278784</v>
+        <v>0.003076952191491269</v>
       </c>
       <c r="F46">
-        <v>0.01075676928670662</v>
+        <v>0.01084802385042324</v>
       </c>
       <c r="G46">
-        <v>0.0022148476016555</v>
+        <v>0.002576416861336751</v>
       </c>
       <c r="H46">
-        <v>0.001588628979479497</v>
-      </c>
-      <c r="I46">
-        <v>0.001495394034324495</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.001844234219348813</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.001445800016419614</v>
+        <v>0.00167957091430471</v>
       </c>
       <c r="C47">
-        <v>0.00194415212877372</v>
+        <v>0.002218900564437702</v>
       </c>
       <c r="D47">
-        <v>0.001787736298575567</v>
+        <v>0.002048449959749672</v>
       </c>
       <c r="E47">
-        <v>0.002503331319938175</v>
+        <v>0.00286797860094768</v>
       </c>
       <c r="F47">
-        <v>0.01104013013334955</v>
+        <v>0.01117976592802215</v>
       </c>
       <c r="G47">
-        <v>0.001818547839859234</v>
+        <v>0.00211542185802184</v>
       </c>
       <c r="H47">
-        <v>0.001497325975195091</v>
-      </c>
-      <c r="I47">
-        <v>0.001558918068517907</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.001711033401775576</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.0006269144668341791</v>
+        <v>0.000692579092360608</v>
       </c>
       <c r="C48">
-        <v>0.0003303845224374878</v>
+        <v>0.0003671749969104869</v>
       </c>
       <c r="D48">
-        <v>0.001084083676685156</v>
+        <v>0.00108798973681527</v>
       </c>
       <c r="E48">
-        <v>0.001070843620429579</v>
+        <v>0.001083586763274962</v>
       </c>
       <c r="F48">
-        <v>0.002474477253630321</v>
+        <v>0.002863911615022734</v>
       </c>
       <c r="G48">
-        <v>0.0003789056408077315</v>
+        <v>0.0004257771593583338</v>
       </c>
       <c r="H48">
-        <v>0.000691514199859727</v>
-      </c>
-      <c r="I48">
-        <v>0.0004059250223913101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.0007506768993919883</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0001410511218137112</v>
+        <v>0.0001640767409038942</v>
       </c>
       <c r="C49">
-        <v>0.0001250011822084427</v>
+        <v>0.000129203600177076</v>
       </c>
       <c r="D49">
-        <v>7.444033927413124E-05</v>
+        <v>7.095748342378411E-05</v>
       </c>
       <c r="E49">
-        <v>7.444033927413124E-05</v>
+        <v>7.095748342378411E-05</v>
       </c>
       <c r="F49">
-        <v>9.81116287163403E-05</v>
+        <v>9.849306937876464E-05</v>
       </c>
       <c r="G49">
-        <v>0.0001753783559566849</v>
+        <v>0.0001673566363366422</v>
       </c>
       <c r="H49">
-        <v>0.0001471781394056977</v>
-      </c>
-      <c r="I49">
-        <v>9.725685412544716E-05</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.0001578333733338667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0001384661653326141</v>
+        <v>0.0001610697948079113</v>
       </c>
       <c r="C50">
-        <v>0.0001250011822084427</v>
+        <v>0.000129203600177076</v>
       </c>
       <c r="D50">
-        <v>7.444033927413124E-05</v>
+        <v>7.095748342378411E-05</v>
       </c>
       <c r="E50">
-        <v>7.444033927413124E-05</v>
+        <v>7.095748342378411E-05</v>
       </c>
       <c r="F50">
-        <v>9.81116287163403E-05</v>
+        <v>9.849306937876464E-05</v>
       </c>
       <c r="G50">
-        <v>0.0001753783559566849</v>
+        <v>0.0001673566363366422</v>
       </c>
       <c r="H50">
-        <v>0.0001517665752566189</v>
-      </c>
-      <c r="I50">
-        <v>0.0001044302464574654</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.0001548264272378837</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.0006134010721778145</v>
+        <v>0.000679815010043311</v>
       </c>
       <c r="C51">
-        <v>0.0003269947254844027</v>
+        <v>0.0003632318215461079</v>
       </c>
       <c r="D51">
-        <v>0.001084902816164266</v>
+        <v>0.00108877477393471</v>
       </c>
       <c r="E51">
-        <v>0.001081511892411293</v>
+        <v>0.001095996611959411</v>
       </c>
       <c r="F51">
-        <v>0.002474477253630321</v>
+        <v>0.002863911615022734</v>
       </c>
       <c r="G51">
-        <v>0.0003971604045296686</v>
+        <v>0.0004470119812627525</v>
       </c>
       <c r="H51">
-        <v>0.0006916952935953649</v>
-      </c>
-      <c r="I51">
-        <v>0.0004043811584146674</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.0007498959285396016</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0002092091883063423</v>
+        <v>0.0002012764322453101</v>
       </c>
       <c r="C52">
-        <v>0.0001392140186481554</v>
+        <v>0.0001527060127021888</v>
       </c>
       <c r="D52">
-        <v>9.500279994101844E-05</v>
+        <v>9.98586641516794E-05</v>
       </c>
       <c r="E52">
-        <v>9.500279994101844E-05</v>
+        <v>9.98586641516794E-05</v>
       </c>
       <c r="F52">
-        <v>7.585513061582776E-05</v>
+        <v>8.576965499479343E-05</v>
       </c>
       <c r="G52">
-        <v>0.0002297957637741199</v>
+        <v>0.0002312326138562357</v>
       </c>
       <c r="H52">
-        <v>0.0002031852404705606</v>
-      </c>
-      <c r="I52">
-        <v>0.0001350606764569632</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.0001904186999438175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.469746684640926E-05</v>
+        <v>5.199352064223194E-05</v>
       </c>
       <c r="C53">
-        <v>4.057843478195332E-05</v>
+        <v>4.720206381268109E-05</v>
       </c>
       <c r="D53">
-        <v>1.807236996288713E-05</v>
+        <v>2.102192335828231E-05</v>
       </c>
       <c r="E53">
-        <v>1.807236996288713E-05</v>
+        <v>2.102192335828231E-05</v>
       </c>
       <c r="F53">
-        <v>2.437150691517854E-05</v>
+        <v>2.618009068183476E-05</v>
       </c>
       <c r="G53">
-        <v>0.0001858543520222598</v>
+        <v>0.0001815795899233248</v>
       </c>
       <c r="H53">
-        <v>3.389306642460218E-05</v>
-      </c>
-      <c r="I53">
-        <v>3.162657444785536E-05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>3.942532078843754E-05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.469746684640926E-05</v>
+        <v>5.199352064223194E-05</v>
       </c>
       <c r="C54">
-        <v>4.057843478195332E-05</v>
+        <v>4.720206381268109E-05</v>
       </c>
       <c r="D54">
-        <v>1.807236996288713E-05</v>
+        <v>2.102192335828231E-05</v>
       </c>
       <c r="E54">
-        <v>1.807236996288713E-05</v>
+        <v>2.102192335828231E-05</v>
       </c>
       <c r="F54">
-        <v>2.437150691517854E-05</v>
+        <v>2.618009068183476E-05</v>
       </c>
       <c r="G54">
-        <v>0.0001858543520222598</v>
+        <v>0.0001815795899233248</v>
       </c>
       <c r="H54">
-        <v>3.389306642460218E-05</v>
-      </c>
-      <c r="I54">
-        <v>3.162657444785536E-05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>3.942532078843754E-05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.469746684640926E-05</v>
+        <v>5.199352064223194E-05</v>
       </c>
       <c r="C55">
-        <v>4.057843478195332E-05</v>
+        <v>4.720206381268109E-05</v>
       </c>
       <c r="D55">
-        <v>1.807236996288713E-05</v>
+        <v>2.102192335828231E-05</v>
       </c>
       <c r="E55">
-        <v>1.807236996288713E-05</v>
+        <v>2.102192335828231E-05</v>
       </c>
       <c r="F55">
-        <v>2.437150691517854E-05</v>
+        <v>2.618009068183476E-05</v>
       </c>
       <c r="G55">
-        <v>0.0001858543520222598</v>
+        <v>0.0001815795899233248</v>
       </c>
       <c r="H55">
-        <v>3.389306642460218E-05</v>
-      </c>
-      <c r="I55">
-        <v>3.162657444785536E-05</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>3.942532078843754E-05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0001100446232603736</v>
+        <v>0.0001249498697368705</v>
       </c>
       <c r="C56">
-        <v>0.0001246871862312751</v>
+        <v>0.0001386280624009518</v>
       </c>
       <c r="D56">
-        <v>7.5539565354177E-05</v>
+        <v>7.949826467648329E-05</v>
       </c>
       <c r="E56">
-        <v>7.5539565354177E-05</v>
+        <v>7.949826467648329E-05</v>
       </c>
       <c r="F56">
-        <v>7.104754146405115E-05</v>
+        <v>7.427292575946469E-05</v>
       </c>
       <c r="G56">
-        <v>0.0002853459487695737</v>
+        <v>0.0002750024037599519</v>
       </c>
       <c r="H56">
-        <v>9.39679773624686E-05</v>
-      </c>
-      <c r="I56">
-        <v>7.883739353702957E-05</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.0001091195662711725</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4.469746684640926E-05</v>
+        <v>5.199352064223194E-05</v>
       </c>
       <c r="C57">
-        <v>4.057843478195332E-05</v>
+        <v>4.720206381268109E-05</v>
       </c>
       <c r="D57">
-        <v>1.165783561484621E-05</v>
+        <v>1.35602275206781E-05</v>
       </c>
       <c r="E57">
-        <v>1.165783561484621E-05</v>
+        <v>1.35602275206781E-05</v>
       </c>
       <c r="F57">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="G57">
-        <v>0.0001663315994704845</v>
+        <v>0.0001588697822350006</v>
       </c>
       <c r="H57">
-        <v>3.389306642460218E-05</v>
-      </c>
-      <c r="I57">
-        <v>3.162657444785536E-05</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>3.942532078843754E-05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.0001949588536096558</v>
+        <v>0.0001846997553859512</v>
       </c>
       <c r="C58">
-        <v>0.0001300419961861753</v>
+        <v>0.0001420366736490943</v>
       </c>
       <c r="D58">
-        <v>8.870240904210835E-05</v>
+        <v>9.469940283972219E-05</v>
       </c>
       <c r="E58">
-        <v>8.870240904210835E-05</v>
+        <v>9.469940283972219E-05</v>
       </c>
       <c r="F58">
-        <v>7.585513061582776E-05</v>
+        <v>8.576965499479343E-05</v>
       </c>
       <c r="G58">
-        <v>0.0002474610387709339</v>
+        <v>0.000251781714034352</v>
       </c>
       <c r="H58">
-        <v>0.0002076390170049822</v>
-      </c>
-      <c r="I58">
-        <v>0.0001313303336629109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.0001955995476913493</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.789453495722278E-05</v>
+        <v>6.73449869916344E-05</v>
       </c>
       <c r="C59">
-        <v>4.869719065806034E-05</v>
+        <v>5.66461923558191E-05</v>
       </c>
       <c r="D59">
-        <v>2.437150691517854E-05</v>
+        <v>2.618009068183476E-05</v>
       </c>
       <c r="E59">
-        <v>2.437150691517854E-05</v>
+        <v>2.618009068183476E-05</v>
       </c>
       <c r="F59">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="G59">
-        <v>0.0001682917778331239</v>
+        <v>0.0001588697822350006</v>
       </c>
       <c r="H59">
-        <v>3.427486921760332E-05</v>
-      </c>
-      <c r="I59">
-        <v>3.731646863123783E-05</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>3.986945221821036E-05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.789453495722278E-05</v>
+        <v>6.73449869916344E-05</v>
       </c>
       <c r="C60">
-        <v>4.869719065806034E-05</v>
+        <v>5.66461923558191E-05</v>
       </c>
       <c r="D60">
-        <v>2.437150691517854E-05</v>
+        <v>2.618009068183476E-05</v>
       </c>
       <c r="E60">
-        <v>2.437150691517854E-05</v>
+        <v>2.618009068183476E-05</v>
       </c>
       <c r="F60">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="G60">
-        <v>0.0001682917778331239</v>
+        <v>0.0001588697822350006</v>
       </c>
       <c r="H60">
-        <v>3.427486921760332E-05</v>
-      </c>
-      <c r="I60">
-        <v>3.731646863123783E-05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>3.986945221821036E-05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.856435874816328E-05</v>
+        <v>6.812415834244578E-05</v>
       </c>
       <c r="C61">
-        <v>5.225095865917808E-05</v>
+        <v>6.078010675443012E-05</v>
       </c>
       <c r="D61">
-        <v>2.437150691517854E-05</v>
+        <v>2.618009068183476E-05</v>
       </c>
       <c r="E61">
-        <v>2.437150691517854E-05</v>
+        <v>2.618009068183476E-05</v>
       </c>
       <c r="F61">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="G61">
-        <v>0.0001725153696251822</v>
+        <v>0.000163782867984423</v>
       </c>
       <c r="H61">
-        <v>3.427486921760332E-05</v>
-      </c>
-      <c r="I61">
-        <v>3.731646863123783E-05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>3.986945221821036E-05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0006105882506615482</v>
+        <v>0.0007053272462409622</v>
       </c>
       <c r="C62">
-        <v>0.0006051489643746057</v>
+        <v>0.0006819725659985562</v>
       </c>
       <c r="D62">
-        <v>0.0008289671673690949</v>
+        <v>0.0009556644937369376</v>
       </c>
       <c r="E62">
-        <v>0.001196705187417173</v>
+        <v>0.001091705224407449</v>
       </c>
       <c r="F62">
-        <v>0.004830769960657067</v>
+        <v>0.00433739453368283</v>
       </c>
       <c r="G62">
-        <v>0.0006409292408582504</v>
+        <v>0.0007116661860485678</v>
       </c>
       <c r="H62">
-        <v>0.0006742372048210693</v>
-      </c>
-      <c r="I62">
-        <v>0.001443921065368676</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.0007564455842460303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.001518568303675027</v>
+        <v>0.001765911197417679</v>
       </c>
       <c r="C63">
-        <v>0.0006863280157369522</v>
+        <v>0.000788004497944635</v>
       </c>
       <c r="D63">
-        <v>0.0008673233884985614</v>
+        <v>0.001004028187036882</v>
       </c>
       <c r="E63">
-        <v>0.002265448391088441</v>
+        <v>0.002336110792358207</v>
       </c>
       <c r="F63">
-        <v>0.005730068476877443</v>
+        <v>0.006009762731966954</v>
       </c>
       <c r="G63">
-        <v>0.001634575452663725</v>
+        <v>0.001880927221798482</v>
       </c>
       <c r="H63">
-        <v>0.001649379826310255</v>
-      </c>
-      <c r="I63">
-        <v>0.0008674369230389138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.001900792016378776</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.0005860139078704501</v>
+        <v>0.0006816789218981179</v>
       </c>
       <c r="C64">
-        <v>0.0005849487336781734</v>
+        <v>0.0006804398598858828</v>
       </c>
       <c r="D64">
-        <v>0.0006781233516732981</v>
+        <v>0.000788825070961558</v>
       </c>
       <c r="E64">
-        <v>0.0006781233516732981</v>
+        <v>0.000788825070961558</v>
       </c>
       <c r="F64">
-        <v>0.004178574972171964</v>
+        <v>0.004188031442020538</v>
       </c>
       <c r="G64">
-        <v>0.0007005671698335066</v>
+        <v>0.0007922904242985001</v>
       </c>
       <c r="H64">
-        <v>0.000589701242791912</v>
-      </c>
-      <c r="I64">
-        <v>0.000597753795257306</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.0006859682077827164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0006474971172380815</v>
+        <v>0.000736213055444312</v>
       </c>
       <c r="C65">
-        <v>0.001113269211236047</v>
+        <v>0.001266421823434769</v>
       </c>
       <c r="D65">
-        <v>0.0008551113823501298</v>
+        <v>0.0009811296420203948</v>
       </c>
       <c r="E65">
-        <v>0.002033832017489556</v>
+        <v>0.002055660618473122</v>
       </c>
       <c r="F65">
-        <v>0.002696526351550495</v>
+        <v>0.003133237084886366</v>
       </c>
       <c r="G65">
-        <v>0.0008123411471754016</v>
+        <v>0.000933713535080284</v>
       </c>
       <c r="H65">
-        <v>0.0008789794558789787</v>
-      </c>
-      <c r="I65">
-        <v>0.0003672808679012448</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.0009793081154129211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.856435874816328E-05</v>
+        <v>6.812415834244578E-05</v>
       </c>
       <c r="C66">
-        <v>5.225095865917808E-05</v>
+        <v>6.078010675443012E-05</v>
       </c>
       <c r="D66">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="E66">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="F66">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="G66">
-        <v>0.0001591280019137952</v>
+        <v>0.0001482100359581915</v>
       </c>
       <c r="H66">
-        <v>3.427486921760332E-05</v>
-      </c>
-      <c r="I66">
-        <v>3.731646863123783E-05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>3.986945221821036E-05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6.068714696408612E-05</v>
+        <v>6.291775483930588E-05</v>
       </c>
       <c r="C67">
-        <v>4.441764691908157E-05</v>
+        <v>5.16680206022084E-05</v>
       </c>
       <c r="D67">
-        <v>3.129423600637943E-05</v>
+        <v>3.03877742551945E-05</v>
       </c>
       <c r="E67">
-        <v>3.129423600637943E-05</v>
+        <v>3.03877742551945E-05</v>
       </c>
       <c r="F67">
-        <v>6.160908986053607E-05</v>
+        <v>6.348181750969289E-05</v>
       </c>
       <c r="G67">
-        <v>6.87307085042969E-05</v>
+        <v>6.81669790451514E-05</v>
       </c>
       <c r="H67">
-        <v>5.33272319196595E-05</v>
-      </c>
-      <c r="I67">
-        <v>3.446180380121659E-05</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>6.162222465097323E-05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.856435874816328E-05</v>
+        <v>6.812415834244578E-05</v>
       </c>
       <c r="C68">
-        <v>5.225095865917808E-05</v>
+        <v>6.078010675443012E-05</v>
       </c>
       <c r="D68">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="E68">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="F68">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="G68">
-        <v>0.0001591280019137952</v>
+        <v>0.0001482100359581915</v>
       </c>
       <c r="H68">
-        <v>3.427486921760332E-05</v>
-      </c>
-      <c r="I68">
-        <v>3.731646863123783E-05</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>3.986945221821036E-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0008460214127797632</v>
+        <v>0.0009785649794896889</v>
       </c>
       <c r="C69">
-        <v>0.001171547928779062</v>
+        <v>0.001321067397369275</v>
       </c>
       <c r="D69">
-        <v>0.002244132560143215</v>
+        <v>0.002501088958346298</v>
       </c>
       <c r="E69">
-        <v>0.002333173197898427</v>
+        <v>0.002552875759019098</v>
       </c>
       <c r="F69">
-        <v>0.005149661706014469</v>
+        <v>0.005482962738049023</v>
       </c>
       <c r="G69">
-        <v>0.001080848338171372</v>
+        <v>0.001248406380062856</v>
       </c>
       <c r="H69">
-        <v>0.001022276795547734</v>
-      </c>
-      <c r="I69">
-        <v>0.0007599288982573459</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.001139317038152045</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0005860139078704501</v>
+        <v>0.0006816789218981179</v>
       </c>
       <c r="C70">
-        <v>0.000585648525670697</v>
+        <v>0.0006812538916946604</v>
       </c>
       <c r="D70">
-        <v>0.0006781233516732981</v>
+        <v>0.000788825070961558</v>
       </c>
       <c r="E70">
-        <v>0.0006781233516732981</v>
+        <v>0.000788825070961558</v>
       </c>
       <c r="F70">
-        <v>0.004179274764164488</v>
+        <v>0.004188845473829316</v>
       </c>
       <c r="G70">
-        <v>0.0007005671698335066</v>
+        <v>0.0007922904242985001</v>
       </c>
       <c r="H70">
-        <v>0.000589701242791912</v>
-      </c>
-      <c r="I70">
-        <v>0.000597753795257306</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.0006859682077827164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6.45066703123569E-05</v>
+        <v>6.71730193072619E-05</v>
       </c>
       <c r="C71">
-        <v>4.807573493067573E-05</v>
+        <v>5.592328507016442E-05</v>
       </c>
       <c r="D71">
-        <v>3.129423600637943E-05</v>
+        <v>3.03877742551945E-05</v>
       </c>
       <c r="E71">
-        <v>3.129423600637943E-05</v>
+        <v>3.03877742551945E-05</v>
       </c>
       <c r="F71">
-        <v>6.160908986053607E-05</v>
+        <v>6.348181750969289E-05</v>
       </c>
       <c r="G71">
-        <v>6.87307085042969E-05</v>
+        <v>6.81669790451514E-05</v>
       </c>
       <c r="H71">
-        <v>5.528741028229901E-05</v>
-      </c>
-      <c r="I71">
-        <v>3.658341750053271E-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>6.162222465097323E-05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.001198209390138092</v>
+        <v>0.001345850834292636</v>
       </c>
       <c r="C72">
-        <v>0.001193461609579965</v>
+        <v>0.001367907992367168</v>
       </c>
       <c r="D72">
-        <v>0.001257644178587147</v>
+        <v>0.001430778468392461</v>
       </c>
       <c r="E72">
-        <v>0.001508433502324295</v>
+        <v>0.001722508709671249</v>
       </c>
       <c r="F72">
-        <v>0.008058641470952942</v>
+        <v>0.008122115024015669</v>
       </c>
       <c r="G72">
-        <v>0.001219672130327571</v>
+        <v>0.001409145118524106</v>
       </c>
       <c r="H72">
-        <v>0.001219497435535256</v>
-      </c>
-      <c r="I72">
-        <v>0.001232169530260136</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.001379677937429347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.856435874816328E-05</v>
+        <v>6.812415834244578E-05</v>
       </c>
       <c r="C73">
-        <v>5.225095865917808E-05</v>
+        <v>6.078010675443012E-05</v>
       </c>
       <c r="D73">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="E73">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="F73">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="G73">
-        <v>0.0001605789901338541</v>
+        <v>0.0001482100359581915</v>
       </c>
       <c r="H73">
-        <v>3.427486921760332E-05</v>
-      </c>
-      <c r="I73">
-        <v>3.876745685129675E-05</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>3.986945221821036E-05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0006498506672365821</v>
+        <v>0.0007412038744339075</v>
       </c>
       <c r="C74">
-        <v>0.001103981885165811</v>
+        <v>0.001255618357661464</v>
       </c>
       <c r="D74">
-        <v>0.0008644995031368283</v>
+        <v>0.0009885063965558258</v>
       </c>
       <c r="E74">
-        <v>0.002550962981905347</v>
+        <v>0.002657212306454346</v>
       </c>
       <c r="F74">
-        <v>0.003595747333861826</v>
+        <v>0.003738986727751532</v>
       </c>
       <c r="G74">
-        <v>0.0008113359225126292</v>
+        <v>0.0009325442092531711</v>
       </c>
       <c r="H74">
-        <v>0.0008810720696037387</v>
-      </c>
-      <c r="I74">
-        <v>0.0007468718057814403</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.0009817423446605239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.856435874816328E-05</v>
+        <v>6.812415834244578E-05</v>
       </c>
       <c r="C75">
-        <v>5.225095865917808E-05</v>
+        <v>6.078010675443012E-05</v>
       </c>
       <c r="D75">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="E75">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="F75">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="G75">
-        <v>0.0001605789901338541</v>
+        <v>0.0001482100359581915</v>
       </c>
       <c r="H75">
-        <v>3.427486921760332E-05</v>
-      </c>
-      <c r="I75">
-        <v>3.876745685129675E-05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>3.986945221821036E-05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.001201599187091177</v>
+        <v>0.001349794009657015</v>
       </c>
       <c r="C76">
-        <v>0.001193461609579965</v>
+        <v>0.001367907992367168</v>
       </c>
       <c r="D76">
-        <v>0.001257644178587147</v>
+        <v>0.001430778468392461</v>
       </c>
       <c r="E76">
-        <v>0.001508433502324295</v>
+        <v>0.001722508709671249</v>
       </c>
       <c r="F76">
-        <v>0.008058641470951736</v>
+        <v>0.008122115024014264</v>
       </c>
       <c r="G76">
-        <v>0.001223061927279448</v>
+        <v>0.00141308829388708</v>
       </c>
       <c r="H76">
-        <v>0.001219497435535256</v>
-      </c>
-      <c r="I76">
-        <v>0.001232169530260136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.001379677937429347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0005697442130277451</v>
+        <v>0.0006529251274105417</v>
       </c>
       <c r="C77">
-        <v>0.0005603478843681148</v>
+        <v>0.0006486663063996922</v>
       </c>
       <c r="D77">
-        <v>0.0006688301779848347</v>
+        <v>0.0007731640697411574</v>
       </c>
       <c r="E77">
-        <v>0.0009193240965555036</v>
+        <v>0.000918833609597416</v>
       </c>
       <c r="F77">
-        <v>0.004270614563268112</v>
+        <v>0.004301299315371874</v>
       </c>
       <c r="G77">
-        <v>0.0005928006650859439</v>
+        <v>0.0006779116017129405</v>
       </c>
       <c r="H77">
-        <v>0.0005789067942036537</v>
-      </c>
-      <c r="I77">
-        <v>0.0007328006725074673</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.0006675384830441744</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6.45066703123569E-05</v>
+        <v>6.71730193072619E-05</v>
       </c>
       <c r="C78">
-        <v>4.807573493067573E-05</v>
+        <v>5.592328507016442E-05</v>
       </c>
       <c r="D78">
-        <v>3.129423600637943E-05</v>
+        <v>3.03877742551945E-05</v>
       </c>
       <c r="E78">
-        <v>3.129423600637943E-05</v>
+        <v>3.03877742551945E-05</v>
       </c>
       <c r="F78">
-        <v>6.160908986053607E-05</v>
+        <v>6.348181750969289E-05</v>
       </c>
       <c r="G78">
-        <v>6.87307085042969E-05</v>
+        <v>6.81669790451514E-05</v>
       </c>
       <c r="H78">
-        <v>5.528741028229901E-05</v>
-      </c>
-      <c r="I78">
-        <v>3.658341750053271E-05</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>6.162222465097323E-05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.786078771308302E-05</v>
+        <v>6.730573056903762E-05</v>
       </c>
       <c r="C79">
-        <v>5.154738762409782E-05</v>
+        <v>5.996167898102197E-05</v>
       </c>
       <c r="D79">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="E79">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="F79">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="G79">
-        <v>0.0001577647059935331</v>
+        <v>0.0001457547526379671</v>
       </c>
       <c r="H79">
-        <v>3.357129818252306E-05</v>
-      </c>
-      <c r="I79">
-        <v>3.806388581621648E-05</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>3.905102444480221E-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0006013953526971939</v>
+        <v>0.0006946336237963196</v>
       </c>
       <c r="C80">
-        <v>0.0006040899530658687</v>
+        <v>0.0006774739778541707</v>
       </c>
       <c r="D80">
-        <v>0.0006734153852249601</v>
+        <v>0.000778410800404732</v>
       </c>
       <c r="E80">
-        <v>0.001064000194722916</v>
+        <v>0.0009410280188592452</v>
       </c>
       <c r="F80">
-        <v>0.004826949810335488</v>
+        <v>0.004333138904552073</v>
       </c>
       <c r="G80">
-        <v>0.000632165167859845</v>
+        <v>0.0007016190775901764</v>
       </c>
       <c r="H80">
-        <v>0.0006656583540470255</v>
-      </c>
-      <c r="I80">
-        <v>0.001440093479753255</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.0007464662511192754</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.301613246949534E-05</v>
+        <v>7.330267632116149E-05</v>
       </c>
       <c r="C81">
-        <v>5.448113508113482E-05</v>
+        <v>6.337435556844107E-05</v>
       </c>
       <c r="D81">
-        <v>1.47858995699545E-05</v>
+        <v>1.502964973819695E-05</v>
       </c>
       <c r="E81">
-        <v>1.47858995699545E-05</v>
+        <v>1.502964973819695E-05</v>
       </c>
       <c r="F81">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="G81">
-        <v>0.0001673450999142601</v>
+        <v>0.0001568991290746963</v>
       </c>
       <c r="H81">
-        <v>4.084644686886186E-05</v>
-      </c>
-      <c r="I81">
-        <v>3.806388581621648E-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>4.751382840303266E-05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0005860139078704501</v>
+        <v>0.0006816789218981179</v>
       </c>
       <c r="C82">
-        <v>0.000585648525670697</v>
+        <v>0.0006812538916946604</v>
       </c>
       <c r="D82">
-        <v>0.0006830828011326307</v>
+        <v>0.0007945941418526995</v>
       </c>
       <c r="E82">
-        <v>0.0006830828011326307</v>
+        <v>0.0007945941418526995</v>
       </c>
       <c r="F82">
-        <v>0.0041868580737772</v>
+        <v>0.004197666745445036</v>
       </c>
       <c r="G82">
-        <v>0.0007104860687521718</v>
+        <v>0.0008038285660807833</v>
       </c>
       <c r="H82">
-        <v>0.0005972845524046232</v>
-      </c>
-      <c r="I82">
-        <v>0.000597753795257306</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.000694789479398436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.00155108758808746</v>
+        <v>0.001753526949452269</v>
       </c>
       <c r="C83">
-        <v>0.001216922223204827</v>
+        <v>0.001396390639648283</v>
       </c>
       <c r="D83">
-        <v>0.002036593378999996</v>
+        <v>0.002168141377760371</v>
       </c>
       <c r="E83">
-        <v>0.002642052365664594</v>
+        <v>0.002726575362170601</v>
       </c>
       <c r="F83">
-        <v>0.008958559919279055</v>
+        <v>0.009433465883001318</v>
       </c>
       <c r="G83">
-        <v>0.001291234961053983</v>
+        <v>0.001481191111236661</v>
       </c>
       <c r="H83">
-        <v>0.001631589426165438</v>
-      </c>
-      <c r="I83">
-        <v>0.001471971520554985</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.001811749608440604</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0005860139078704501</v>
+        <v>0.0006816789218981179</v>
       </c>
       <c r="C84">
-        <v>0.000585648525670697</v>
+        <v>0.0006812538916946604</v>
       </c>
       <c r="D84">
-        <v>0.0006830828011326307</v>
+        <v>0.0007945941418526995</v>
       </c>
       <c r="E84">
-        <v>0.0006830828011326307</v>
+        <v>0.0007945941418526995</v>
       </c>
       <c r="F84">
-        <v>0.004187677213256308</v>
+        <v>0.004198451782564475</v>
       </c>
       <c r="G84">
-        <v>0.0007111609351199152</v>
+        <v>0.0008046136032002224</v>
       </c>
       <c r="H84">
-        <v>0.0005972845524046232</v>
-      </c>
-      <c r="I84">
-        <v>0.0005978980683686719</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.000694789479398436</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6.874308676310167E-05</v>
+        <v>7.99645458655662E-05</v>
       </c>
       <c r="C85">
-        <v>6.695490219030376E-05</v>
+        <v>7.788444329541015E-05</v>
       </c>
       <c r="D85">
-        <v>3.721909882811378E-05</v>
+        <v>3.51102031895651E-05</v>
       </c>
       <c r="E85">
-        <v>3.721909882811378E-05</v>
+        <v>3.51102031895651E-05</v>
       </c>
       <c r="F85">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="G85">
-        <v>0.0001642633145605289</v>
+        <v>0.0001533142476634137</v>
       </c>
       <c r="H85">
-        <v>6.235775665972747E-05</v>
-      </c>
-      <c r="I85">
-        <v>4.840531771775273E-05</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>7.253682181438428E-05</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6.874308676310167E-05</v>
+        <v>7.99645458655662E-05</v>
       </c>
       <c r="C86">
-        <v>6.695490219030376E-05</v>
+        <v>7.788444329541015E-05</v>
       </c>
       <c r="D86">
-        <v>3.721909882811378E-05</v>
+        <v>3.51102031895651E-05</v>
       </c>
       <c r="E86">
-        <v>3.721909882811378E-05</v>
+        <v>3.51102031895651E-05</v>
       </c>
       <c r="F86">
-        <v>1.767782305948503E-05</v>
+        <v>1.839367466871902E-05</v>
       </c>
       <c r="G86">
-        <v>0.0001670951046799407</v>
+        <v>0.0001533142476634137</v>
       </c>
       <c r="H86">
-        <v>6.235775665972747E-05</v>
-      </c>
-      <c r="I86">
-        <v>5.123710783716456E-05</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>7.253682181438428E-05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7.067995284833858E-05</v>
+        <v>8.221760194447284E-05</v>
       </c>
       <c r="C87">
-        <v>6.695490219030376E-05</v>
+        <v>7.788444329541015E-05</v>
       </c>
       <c r="D87">
-        <v>3.721909882811378E-05</v>
+        <v>3.51102031895651E-05</v>
       </c>
       <c r="E87">
-        <v>3.721909882811378E-05</v>
+        <v>3.51102031895651E-05</v>
       </c>
       <c r="F87">
-        <v>1.47858995699545E-05</v>
+        <v>1.502964973819695E-05</v>
       </c>
       <c r="G87">
-        <v>0.0001661400472756472</v>
+        <v>0.0001522032788117983</v>
       </c>
       <c r="H87">
-        <v>6.235775665972747E-05</v>
-      </c>
-      <c r="I87">
-        <v>5.123710783716456E-05</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>7.253682181438428E-05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6.768265442166278E-05</v>
+        <v>7.87309998030072E-05</v>
       </c>
       <c r="C88">
-        <v>6.316644933525817E-05</v>
+        <v>7.347753215179971E-05</v>
       </c>
       <c r="D88">
-        <v>3.721909882811378E-05</v>
+        <v>3.51102031895651E-05</v>
       </c>
       <c r="E88">
-        <v>3.721909882811378E-05</v>
+        <v>3.51102031895651E-05</v>
       </c>
       <c r="F88">
-        <v>1.271868708680707E-05</v>
+        <v>1.262496844037903E-05</v>
       </c>
       <c r="G88">
-        <v>0.0001497101778006872</v>
+        <v>0.0001374981730852939</v>
       </c>
       <c r="H88">
-        <v>5.856930380468187E-05</v>
-      </c>
-      <c r="I88">
-        <v>4.744865498211897E-05</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>6.812991067077383E-05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>9.217261349520806E-05</v>
+        <v>0.0001041602857018134</v>
       </c>
       <c r="C89">
-        <v>0.0001040940362726898</v>
+        <v>0.0001146731168052415</v>
       </c>
       <c r="D89">
-        <v>5.639189602898636E-05</v>
+        <v>6.540925551959729E-05</v>
       </c>
       <c r="E89">
-        <v>5.639189602898636E-05</v>
+        <v>6.540925551959729E-05</v>
       </c>
       <c r="F89">
-        <v>7.104754146405115E-05</v>
+        <v>7.427292575946469E-05</v>
       </c>
       <c r="G89">
-        <v>0.0003214812840957078</v>
+        <v>0.000317036769243675</v>
       </c>
       <c r="H89">
-        <v>7.22585517736387E-05</v>
-      </c>
-      <c r="I89">
-        <v>6.494993280978721E-05</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>8.365171210444491E-05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.0005197067067819079</v>
+        <v>0.0005913176541307318</v>
       </c>
       <c r="C90">
-        <v>0.0006388496657976915</v>
+        <v>0.0007221550752933812</v>
       </c>
       <c r="D90">
-        <v>0.0008386407103929592</v>
+        <v>0.0009596973752448414</v>
       </c>
       <c r="E90">
-        <v>0.001341534747649687</v>
+        <v>0.001398823226684756</v>
       </c>
       <c r="F90">
-        <v>0.003297749810752163</v>
+        <v>0.003184582629396823</v>
       </c>
       <c r="G90">
-        <v>0.0007209537764412138</v>
+        <v>0.0007905037943316703</v>
       </c>
       <c r="H90">
-        <v>0.0004062588823877794</v>
-      </c>
-      <c r="I90">
-        <v>0.000784754289158647</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.0004711607101030087</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.002249225773268758</v>
+        <v>0.002568614901605488</v>
       </c>
       <c r="C91">
-        <v>0.001552621560966362</v>
+        <v>0.001798392979866812</v>
       </c>
       <c r="D91">
-        <v>0.00195828884085974</v>
+        <v>0.002243109978319207</v>
       </c>
       <c r="E91">
-        <v>0.002678705779088918</v>
+        <v>0.00306824770586088</v>
       </c>
       <c r="F91">
-        <v>0.01184941056408802</v>
+        <v>0.01212277219311803</v>
       </c>
       <c r="G91">
-        <v>0.002198910919541687</v>
+        <v>0.002557878543800081</v>
       </c>
       <c r="H91">
-        <v>0.002321812040182646</v>
-      </c>
-      <c r="I91">
-        <v>0.001610587871137295</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.002626468150619537</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.000513939726328304</v>
+        <v>0.0005846092242258637</v>
       </c>
       <c r="C92">
-        <v>0.0007631087024596554</v>
+        <v>0.0008655069666993865</v>
       </c>
       <c r="D92">
-        <v>0.0008444215220527795</v>
+        <v>0.0009664218942760989</v>
       </c>
       <c r="E92">
-        <v>0.001465613079275864</v>
+        <v>0.001543157128476813</v>
       </c>
       <c r="F92">
-        <v>0.003663868793630333</v>
+        <v>0.003610469894533111</v>
       </c>
       <c r="G92">
-        <v>0.000728618030885959</v>
+        <v>0.0008001360235137435</v>
       </c>
       <c r="H92">
-        <v>0.0007943492065339283</v>
-      </c>
-      <c r="I92">
-        <v>0.0007873354432132284</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.0009200789930999473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.001221337980828014</v>
+        <v>0.001420718536233497</v>
       </c>
       <c r="C93">
-        <v>0.001717098291083343</v>
+        <v>0.001976101976260685</v>
       </c>
       <c r="D93">
-        <v>0.001161556472567448</v>
+        <v>0.001323962370976805</v>
       </c>
       <c r="E93">
-        <v>0.002205365991849712</v>
+        <v>0.002543110066297199</v>
       </c>
       <c r="F93">
-        <v>0.008327113299761112</v>
+        <v>0.008408390828337607</v>
       </c>
       <c r="G93">
-        <v>0.001275059452143774</v>
+        <v>0.001483209943583932</v>
       </c>
       <c r="H93">
-        <v>0.001904854339381065</v>
-      </c>
-      <c r="I93">
-        <v>0.001206037251225019</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.002161812883173647</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.001549301144789872</v>
+        <v>0.001780797940292234</v>
       </c>
       <c r="C94">
-        <v>0.0002759613576284982</v>
+        <v>0.0003036087949236776</v>
       </c>
       <c r="D94">
-        <v>0.0009283802549846288</v>
+        <v>0.00107505247996243</v>
       </c>
       <c r="E94">
-        <v>0.001982918092980494</v>
+        <v>0.002159601422292719</v>
       </c>
       <c r="F94">
-        <v>0.005331893700912984</v>
+        <v>0.005538638992420273</v>
       </c>
       <c r="G94">
-        <v>0.001452236302503834</v>
+        <v>0.00166827675866777</v>
       </c>
       <c r="H94">
-        <v>0.001483471673788421</v>
-      </c>
-      <c r="I94">
-        <v>0.0007794432725868539</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.001694407587881918</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.0005906875955781835</v>
+        <v>0.000687115580932566</v>
       </c>
       <c r="C95">
-        <v>0.0005981216658065566</v>
+        <v>0.0006957632500960262</v>
       </c>
       <c r="D95">
-        <v>0.0007075819589273188</v>
+        <v>0.000817078282613481</v>
       </c>
       <c r="E95">
-        <v>0.0007075819589273188</v>
+        <v>0.000817078282613481</v>
       </c>
       <c r="F95">
-        <v>0.004195441303118002</v>
+        <v>0.004206491718665007</v>
       </c>
       <c r="G95">
-        <v>0.0007180725604923951</v>
+        <v>0.0008126535393007538</v>
       </c>
       <c r="H95">
-        <v>0.0006187952352221795</v>
-      </c>
-      <c r="I95">
-        <v>0.0006090913377861133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.0007198117434841845</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0007097030106428026</v>
+        <v>0.000821814532272926</v>
       </c>
       <c r="C96">
-        <v>0.0005940966505683715</v>
+        <v>0.0006628029645742128</v>
       </c>
       <c r="D96">
-        <v>0.0008086328682231181</v>
+        <v>0.0009368945157088659</v>
       </c>
       <c r="E96">
-        <v>0.00142131762107236</v>
+        <v>0.001356676888789981</v>
       </c>
       <c r="F96">
-        <v>0.004826949810335488</v>
+        <v>0.004333138904552073</v>
       </c>
       <c r="G96">
-        <v>0.0006449404574856124</v>
+        <v>0.0007164799108561001</v>
       </c>
       <c r="H96">
-        <v>0.0007660453550110011</v>
-      </c>
-      <c r="I96">
-        <v>0.001439637580556455</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.0008644334692445328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.0005916821942432549</v>
+        <v>0.0006882725460864773</v>
       </c>
       <c r="C97">
-        <v>0.0005998392138084737</v>
+        <v>0.0006977611847989099</v>
       </c>
       <c r="D97">
-        <v>0.0007075819589098391</v>
+        <v>0.0008170782825931477</v>
       </c>
       <c r="E97">
-        <v>0.0008329766207784129</v>
+        <v>0.0009629434032325414</v>
       </c>
       <c r="F97">
-        <v>0.004324990887452213</v>
+        <v>0.004357190045580219</v>
       </c>
       <c r="G97">
-        <v>0.0007195153363260023</v>
+        <v>0.0008143318457604443</v>
       </c>
       <c r="H97">
-        <v>0.0006187952352221795</v>
-      </c>
-      <c r="I97">
-        <v>0.0006090913377861133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.0007198117434841845</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.0005916821942432549</v>
+        <v>0.0006882725460864773</v>
       </c>
       <c r="C98">
-        <v>0.0005998392138084737</v>
+        <v>0.0006977611847989099</v>
       </c>
       <c r="D98">
-        <v>0.0007075819589098391</v>
+        <v>0.0008170782825931477</v>
       </c>
       <c r="E98">
-        <v>0.0008329766207784129</v>
+        <v>0.0009629434032325414</v>
       </c>
       <c r="F98">
-        <v>0.004325997050052476</v>
+        <v>0.004358360462461473</v>
       </c>
       <c r="G98">
-        <v>0.0007195153363260023</v>
+        <v>0.0008143318457604443</v>
       </c>
       <c r="H98">
-        <v>0.0006198013978224419</v>
-      </c>
-      <c r="I98">
-        <v>0.0006090913377861133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.0007209821603654385</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>8.088034950578565E-05</v>
+        <v>9.408319547801286E-05</v>
       </c>
       <c r="C99">
-        <v>6.436576900999715E-05</v>
+        <v>7.487263866139222E-05</v>
       </c>
       <c r="D99">
-        <v>4.38245337983296E-05</v>
+        <v>4.279396384132273E-05</v>
       </c>
       <c r="E99">
-        <v>4.38245337983296E-05</v>
+        <v>4.279396384132273E-05</v>
       </c>
       <c r="F99">
-        <v>1.271868708680707E-05</v>
+        <v>1.262496844037903E-05</v>
       </c>
       <c r="G99">
-        <v>0.0001511007123585814</v>
+        <v>0.0001391157099725744</v>
       </c>
       <c r="H99">
-        <v>5.87736935441459E-05</v>
-      </c>
-      <c r="I99">
-        <v>4.744865498211897E-05</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>6.836766667697146E-05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0006081644562975076</v>
+        <v>0.0007074455085326261</v>
       </c>
       <c r="C100">
-        <v>0.0005998392138084737</v>
+        <v>0.0006977611847989099</v>
       </c>
       <c r="D100">
-        <v>0.0007141873938800549</v>
+        <v>0.0008247620432449053</v>
       </c>
       <c r="E100">
-        <v>0.0008395820557486287</v>
+        <v>0.0009706271638842991</v>
       </c>
       <c r="F100">
-        <v>0.004329281617022605</v>
+        <v>0.004362181229232617</v>
       </c>
       <c r="G100">
-        <v>0.0007195153363260023</v>
+        <v>0.0008143318457604443</v>
       </c>
       <c r="H100">
-        <v>0.0006198145726787508</v>
-      </c>
-      <c r="I100">
-        <v>0.0006090913377861133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.000720997485993948</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.0001155950969704281</v>
+        <v>0.0001249280150978485</v>
       </c>
       <c r="C101">
-        <v>0.0001024478538872179</v>
+        <v>0.0001052486545813657</v>
       </c>
       <c r="D101">
-        <v>4.86869214920701E-05</v>
+        <v>4.918434895233888E-05</v>
       </c>
       <c r="E101">
-        <v>4.86869214920701E-05</v>
+        <v>4.918434895233888E-05</v>
       </c>
       <c r="F101">
-        <v>9.81116287163403E-05</v>
+        <v>9.849306937876464E-05</v>
       </c>
       <c r="G101">
-        <v>0.0002115130643095097</v>
+        <v>0.0002093902724947621</v>
       </c>
       <c r="H101">
-        <v>0.0001298596608431341</v>
-      </c>
-      <c r="I101">
-        <v>9.659692988633973E-05</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.0001293432474426465</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.001210122567494257</v>
+        <v>0.00135970881697197</v>
       </c>
       <c r="C102">
-        <v>0.001185717026272095</v>
+        <v>0.001358899119408219</v>
       </c>
       <c r="D102">
-        <v>0.001234789752336964</v>
+        <v>0.001410207923380906</v>
       </c>
       <c r="E102">
-        <v>0.001610973737942686</v>
+        <v>0.001847803285299088</v>
       </c>
       <c r="F102">
-        <v>0.008194281945075446</v>
+        <v>0.008279338212232711</v>
       </c>
       <c r="G102">
-        <v>0.00121888854940304</v>
+        <v>0.001408233619387028</v>
       </c>
       <c r="H102">
-        <v>0.001198709909387041</v>
-      </c>
-      <c r="I102">
-        <v>0.001222309814596041</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.001355496884071733</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4.712048385644039E-05</v>
+        <v>4.694856838518614E-05</v>
       </c>
       <c r="C103">
-        <v>4.647253881912217E-05</v>
+        <v>5.405837000332159E-05</v>
       </c>
       <c r="D103">
-        <v>8.967989075769648E-06</v>
+        <v>1.024347887614998E-05</v>
       </c>
       <c r="E103">
-        <v>8.967989075769648E-06</v>
+        <v>1.024347887614998E-05</v>
       </c>
       <c r="F103">
-        <v>6.160908986053607E-05</v>
+        <v>6.348181750969289E-05</v>
       </c>
       <c r="G103">
-        <v>7.864898044965282E-05</v>
+        <v>7.97043915018314E-05</v>
       </c>
       <c r="H103">
-        <v>3.780188997218203E-05</v>
-      </c>
-      <c r="I103">
-        <v>2.656548324565903E-05</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>4.128222379710121E-05</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>4.712048385644039E-05</v>
+        <v>4.694856838518614E-05</v>
       </c>
       <c r="C104">
-        <v>4.647253881912217E-05</v>
+        <v>5.405837000332159E-05</v>
       </c>
       <c r="D104">
-        <v>8.967989075769648E-06</v>
+        <v>1.024347887614998E-05</v>
       </c>
       <c r="E104">
-        <v>8.967989075769648E-06</v>
+        <v>1.024347887614998E-05</v>
       </c>
       <c r="F104">
-        <v>6.160908986053607E-05</v>
+        <v>6.348181750969289E-05</v>
       </c>
       <c r="G104">
-        <v>7.864898044965282E-05</v>
+        <v>7.97043915018314E-05</v>
       </c>
       <c r="H104">
-        <v>3.780188997218203E-05</v>
-      </c>
-      <c r="I104">
-        <v>2.656548324565903E-05</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>4.128222379710121E-05</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.0006081644562975076</v>
+        <v>0.0007074455085326261</v>
       </c>
       <c r="C105">
-        <v>0.000607612016212944</v>
+        <v>0.0007068028835725192</v>
       </c>
       <c r="D105">
-        <v>0.0007181921716532488</v>
+        <v>0.0008292324399351561</v>
       </c>
       <c r="E105">
-        <v>0.0008435868335218224</v>
+        <v>0.0009750975605745497</v>
       </c>
       <c r="F105">
-        <v>0.004336297483134414</v>
+        <v>0.004366798462675333</v>
       </c>
       <c r="G105">
-        <v>0.0007230285958112311</v>
+        <v>0.0008184186386989466</v>
       </c>
       <c r="H105">
-        <v>0.0006201838275887524</v>
-      </c>
-      <c r="I105">
-        <v>0.0006124614426581575</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.0007214270211208145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.00017110643592238</v>
+        <v>0.0001556095742801037</v>
       </c>
       <c r="C106">
-        <v>0.0001123820735743338</v>
+        <v>0.0001223336391288999</v>
       </c>
       <c r="D106">
-        <v>6.5244917869031E-05</v>
+        <v>7.361549764884498E-05</v>
       </c>
       <c r="E106">
-        <v>6.5244917869031E-05</v>
+        <v>7.361549764884498E-05</v>
       </c>
       <c r="F106">
-        <v>6.924969564561196E-05</v>
+        <v>7.808589434303578E-05</v>
       </c>
       <c r="G106">
-        <v>0.0002707673054009862</v>
+        <v>0.0002788926878428666</v>
       </c>
       <c r="H106">
-        <v>0.0001823492065532214</v>
-      </c>
-      <c r="I106">
-        <v>0.0001210987239438566</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.0001661812200087895</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.001012053580357569</v>
+        <v>0.001156381495372844</v>
       </c>
       <c r="C107">
-        <v>0.001216751950886128</v>
+        <v>0.001408633202250562</v>
       </c>
       <c r="D107">
-        <v>0.001360664356870274</v>
+        <v>0.001582229708055298</v>
       </c>
       <c r="E107">
-        <v>0.00276885285625874</v>
+        <v>0.003217677336688536</v>
       </c>
       <c r="F107">
-        <v>0.00657819066539442</v>
+        <v>0.006390251813168132</v>
       </c>
       <c r="G107">
-        <v>0.001108143812883006</v>
+        <v>0.001250058079842376</v>
       </c>
       <c r="H107">
-        <v>0.0009554772764943112</v>
-      </c>
-      <c r="I107">
-        <v>0.001158281622394883</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.00109628019221116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>3.392341574562688E-05</v>
+        <v>3.927283521048492E-05</v>
       </c>
       <c r="C108">
-        <v>3.986741733556102E-05</v>
+        <v>4.637497401436555E-05</v>
       </c>
       <c r="D108">
-        <v>8.78367510742347E-06</v>
+        <v>1.002907597551838E-05</v>
       </c>
       <c r="E108">
-        <v>8.78367510742347E-06</v>
+        <v>1.002907597551838E-05</v>
       </c>
       <c r="F108">
-        <v>6.160908986053607E-05</v>
+        <v>6.348181750969289E-05</v>
       </c>
       <c r="G108">
-        <v>7.864898044965282E-05</v>
+        <v>7.97043915018314E-05</v>
       </c>
       <c r="H108">
-        <v>3.742008717918088E-05</v>
-      </c>
-      <c r="I108">
-        <v>1.996036176209788E-05</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>4.08457551815832E-05</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.001494640983316936</v>
+        <v>0.001734892253225321</v>
       </c>
       <c r="C109">
-        <v>0.0007050463577995774</v>
+        <v>0.0008059705128013457</v>
       </c>
       <c r="D109">
-        <v>0.001465509072943986</v>
+        <v>0.001704750131178727</v>
       </c>
       <c r="E109">
-        <v>0.002388944755911759</v>
+        <v>0.002481162245851624</v>
       </c>
       <c r="F109">
-        <v>0.006763281617160907</v>
+        <v>0.006615289944469306</v>
       </c>
       <c r="G109">
-        <v>0.001614303371206915</v>
+        <v>0.001857345758574726</v>
       </c>
       <c r="H109">
-        <v>0.001616531860036548</v>
-      </c>
-      <c r="I109">
-        <v>0.001380716645706245</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.001862581677183517</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0006347324655088541</v>
+        <v>0.0007034692626812164</v>
       </c>
       <c r="C110">
-        <v>0.0003355697854421451</v>
+        <v>0.0003748824135396837</v>
       </c>
       <c r="D110">
-        <v>0.002062389177980644</v>
+        <v>0.002219398227865916</v>
       </c>
       <c r="E110">
-        <v>0.001585661697186142</v>
+        <v>0.001671449490047242</v>
       </c>
       <c r="F110">
-        <v>0.002990802232539173</v>
+        <v>0.003464525741775663</v>
       </c>
       <c r="G110">
-        <v>0.0004291767490605796</v>
+        <v>0.0004900676859811837</v>
       </c>
       <c r="H110">
-        <v>0.0008373229530799993</v>
-      </c>
-      <c r="I110">
-        <v>0.0004139280273758047</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.000919297048193503</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.001210400153332925</v>
+        <v>0.00135970881697197</v>
       </c>
       <c r="C111">
-        <v>0.001184749038113426</v>
+        <v>0.00135777310887924</v>
       </c>
       <c r="D111">
-        <v>0.00123115422946713</v>
+        <v>0.001406167061809796</v>
       </c>
       <c r="E111">
-        <v>0.001607338215072851</v>
+        <v>0.001843762423727977</v>
       </c>
       <c r="F111">
-        <v>0.008220855908434481</v>
+        <v>0.00830756589278722</v>
       </c>
       <c r="G111">
-        <v>0.001228767089872047</v>
+        <v>0.001421612385742596</v>
       </c>
       <c r="H111">
-        <v>0.00121866700704631</v>
-      </c>
-      <c r="I111">
-        <v>0.001230415300080512</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.001370026708609153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>8.088034950578565E-05</v>
+        <v>9.408319547801286E-05</v>
       </c>
       <c r="C112">
-        <v>7.168257200649479E-05</v>
+        <v>8.338389692290744E-05</v>
       </c>
       <c r="D112">
-        <v>4.978948993755006E-05</v>
+        <v>4.726436053551355E-05</v>
       </c>
       <c r="E112">
-        <v>4.978948993755006E-05</v>
+        <v>4.726436053551355E-05</v>
       </c>
       <c r="F112">
-        <v>1.271868708680707E-05</v>
+        <v>1.262496844037903E-05</v>
       </c>
       <c r="G112">
-        <v>0.0001511007123585814</v>
+        <v>0.0001391157099725744</v>
       </c>
       <c r="H112">
-        <v>5.914294845414759E-05</v>
-      </c>
-      <c r="I112">
-        <v>5.169250935406054E-05</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>6.879720180383784E-05</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.001210400153332925</v>
+        <v>0.00135970881697197</v>
       </c>
       <c r="C113">
-        <v>0.001194784583976093</v>
+        <v>0.001363149439274603</v>
       </c>
       <c r="D113">
-        <v>0.00135458839948641</v>
+        <v>0.001552031817786388</v>
       </c>
       <c r="E113">
-        <v>0.001730772385092131</v>
+        <v>0.001989627179704569</v>
       </c>
       <c r="F113">
-        <v>0.008097928575022898</v>
+        <v>0.008164069792692139</v>
       </c>
       <c r="G113">
-        <v>0.001358508080231563</v>
+        <v>0.00157253336538127</v>
       </c>
       <c r="H113">
-        <v>0.001226494467939311</v>
-      </c>
-      <c r="I113">
-        <v>0.001233234672132592</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.001378090606785085</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0006095041038793886</v>
+        <v>0.0007090038512342488</v>
       </c>
       <c r="C114">
-        <v>0.0006147195522151795</v>
+        <v>0.0007150707123697413</v>
       </c>
       <c r="D114">
-        <v>0.0007243759418057998</v>
+        <v>0.0008341455256820814</v>
       </c>
       <c r="E114">
-        <v>0.0008497706036743734</v>
+        <v>0.0009800106463214752</v>
       </c>
       <c r="F114">
-        <v>0.0043365928882966</v>
+        <v>0.004366994408116275</v>
       </c>
       <c r="G114">
-        <v>0.0007230285958112311</v>
+        <v>0.0008184186386989466</v>
       </c>
       <c r="H114">
-        <v>0.0006203522743896752</v>
-      </c>
-      <c r="I114">
-        <v>0.0006165087577489923</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.0007216229665667512</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0006157120882483646</v>
+        <v>0.0007162252781707258</v>
       </c>
       <c r="C115">
-        <v>0.0006147195522151795</v>
+        <v>0.0007150707123697413</v>
       </c>
       <c r="D115">
-        <v>0.0007243759418034127</v>
+        <v>0.0008341455256793045</v>
       </c>
       <c r="E115">
-        <v>0.0008497706036719862</v>
+        <v>0.0009800106463186981</v>
       </c>
       <c r="F115">
-        <v>0.004350994025670714</v>
+        <v>0.00438374650592584</v>
       </c>
       <c r="G115">
-        <v>0.0007230285958112311</v>
+        <v>0.0008184186386989466</v>
       </c>
       <c r="H115">
-        <v>0.0006285454273995887</v>
-      </c>
-      <c r="I115">
-        <v>0.0006165087577489923</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.0007311536374453937</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>8.455715442818795E-05</v>
+        <v>9.836023235966132E-05</v>
       </c>
       <c r="C116">
-        <v>8.502699156331475E-05</v>
+        <v>9.890676958361402E-05</v>
       </c>
       <c r="D116">
-        <v>5.40130817296083E-05</v>
+        <v>5.217744628493596E-05</v>
       </c>
       <c r="E116">
-        <v>5.40130817296083E-05</v>
+        <v>5.217744628493596E-05</v>
       </c>
       <c r="F116">
-        <v>3.721909882811378E-05</v>
+        <v>3.51102031895651E-05</v>
       </c>
       <c r="G116">
-        <v>0.0001518113211449227</v>
+        <v>0.000139942324397802</v>
       </c>
       <c r="H116">
-        <v>7.060921213592176E-05</v>
-      </c>
-      <c r="I116">
-        <v>5.686322530482865E-05</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>8.213531293474123E-05</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8.455715442818795E-05</v>
+        <v>9.836023235966132E-05</v>
       </c>
       <c r="C117">
-        <v>8.502699156331475E-05</v>
+        <v>9.890676958361402E-05</v>
       </c>
       <c r="D117">
-        <v>5.546406994966722E-05</v>
+        <v>5.217744628493596E-05</v>
       </c>
       <c r="E117">
-        <v>5.546406994966722E-05</v>
+        <v>5.217744628493596E-05</v>
       </c>
       <c r="F117">
-        <v>3.721909882811378E-05</v>
+        <v>3.51102031895651E-05</v>
       </c>
       <c r="G117">
-        <v>0.0001518113211449227</v>
+        <v>0.000139942324397802</v>
       </c>
       <c r="H117">
-        <v>7.060921213592176E-05</v>
-      </c>
-      <c r="I117">
-        <v>5.976520174494649E-05</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>8.213531293474123E-05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.000615825365582782</v>
+        <v>0.0007163570478314459</v>
       </c>
       <c r="C118">
-        <v>0.0006149672540471889</v>
+        <v>0.0007153588510916793</v>
       </c>
       <c r="D118">
-        <v>0.0007258269300234716</v>
+        <v>0.0008341455256793045</v>
       </c>
       <c r="E118">
-        <v>0.0008512215918920452</v>
+        <v>0.0009800106463186981</v>
       </c>
       <c r="F118">
-        <v>0.004358044344119296</v>
+        <v>0.004391947776504059</v>
       </c>
       <c r="G118">
-        <v>0.0007269642183247109</v>
+        <v>0.0008229967446897865</v>
       </c>
       <c r="H118">
-        <v>0.0006312991441682633</v>
-      </c>
-      <c r="I118">
-        <v>0.0006194107341891101</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.000734356893650115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.0006205408778231319</v>
+        <v>0.0007218423591801545</v>
       </c>
       <c r="C119">
-        <v>0.0006178591775367194</v>
+        <v>0.0007187228760222013</v>
       </c>
       <c r="D119">
-        <v>0.0007258269300216865</v>
+        <v>0.000834145525677228</v>
       </c>
       <c r="E119">
-        <v>0.0008512215918902602</v>
+        <v>0.0009800106463166217</v>
       </c>
       <c r="F119">
-        <v>0.004363825155775546</v>
+        <v>0.004398672295531164</v>
       </c>
       <c r="G119">
-        <v>0.0007385319122828331</v>
+        <v>0.0008330888194813526</v>
       </c>
       <c r="H119">
-        <v>0.0006381482905667947</v>
-      </c>
-      <c r="I119">
-        <v>0.0006223026576786406</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.0007423241511937077</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.000939371482412981</v>
+        <v>0.001041433837493157</v>
       </c>
       <c r="C120">
-        <v>9.930555943441993E-05</v>
+        <v>9.04437033599587E-05</v>
       </c>
       <c r="D120">
-        <v>0.0002955705634036373</v>
+        <v>0.0003438212105071495</v>
       </c>
       <c r="E120">
-        <v>0.0002955705634036373</v>
+        <v>0.0003438212105071495</v>
       </c>
       <c r="F120">
-        <v>0.001111979657535578</v>
+        <v>0.001290213948105579</v>
       </c>
       <c r="G120">
-        <v>0.0002303838356648077</v>
+        <v>0.0002442670922882477</v>
       </c>
       <c r="H120">
-        <v>0.0009841125396567005</v>
-      </c>
-      <c r="I120">
-        <v>0.0001418522361131377</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.001083142657741853</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.001497576194437833</v>
+        <v>0.001738306632417161</v>
       </c>
       <c r="C121">
-        <v>0.0007129698558401391</v>
+        <v>0.0008161791358324785</v>
       </c>
       <c r="D121">
-        <v>0.001574692647324154</v>
+        <v>0.001828513306048835</v>
       </c>
       <c r="E121">
-        <v>0.002505936968688512</v>
+        <v>0.002617421057755859</v>
       </c>
       <c r="F121">
-        <v>0.006763281617160907</v>
+        <v>0.006615289944469306</v>
       </c>
       <c r="G121">
-        <v>0.001594941889907814</v>
+        <v>0.001834823549388415</v>
       </c>
       <c r="H121">
-        <v>0.001599446190881578</v>
-      </c>
-      <c r="I121">
-        <v>0.001382509017540475</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.00184270680248505</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.001552101056695695</v>
+        <v>0.00178737460470675</v>
       </c>
       <c r="C122">
-        <v>0.0006807858948874145</v>
+        <v>0.0007745202283541431</v>
       </c>
       <c r="D122">
-        <v>0.001609444887693224</v>
+        <v>0.001863553833960675</v>
       </c>
       <c r="E122">
-        <v>0.002218240983243305</v>
+        <v>0.002434499450544594</v>
       </c>
       <c r="F122">
-        <v>0.006233925495391852</v>
+        <v>0.006587925896356684</v>
       </c>
       <c r="G122">
-        <v>0.001464788814136097</v>
+        <v>0.001682878445823213</v>
       </c>
       <c r="H122">
-        <v>0.001616066694531582</v>
-      </c>
-      <c r="I122">
-        <v>0.0007792949650101136</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.001848088157787287</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.001224155769652758</v>
+        <v>0.001375710013546547</v>
       </c>
       <c r="C123">
-        <v>0.001176545814205904</v>
+        <v>0.001351470636493195</v>
       </c>
       <c r="D123">
-        <v>0.001360802852650279</v>
+        <v>0.001560948629041024</v>
       </c>
       <c r="E123">
-        <v>0.001736986838256</v>
+        <v>0.001998543990959205</v>
       </c>
       <c r="F123">
-        <v>0.008100863786111233</v>
+        <v>0.008167484171873086</v>
       </c>
       <c r="G123">
-        <v>0.001356865429338548</v>
+        <v>0.001572755795758958</v>
       </c>
       <c r="H123">
-        <v>0.001241235980195144</v>
-      </c>
-      <c r="I123">
-        <v>0.001220299879919348</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.001395238645079234</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0006350243725308861</v>
+        <v>0.0007386902590137283</v>
       </c>
       <c r="C124">
-        <v>0.0006270884504604186</v>
+        <v>0.0007294588115745477</v>
       </c>
       <c r="D124">
-        <v>0.0007450756006496863</v>
+        <v>0.0008532424331549763</v>
       </c>
       <c r="E124">
-        <v>0.0008704702625182599</v>
+        <v>0.0009991075537943701</v>
       </c>
       <c r="F124">
-        <v>0.004365119407807841</v>
+        <v>0.004400177831939297</v>
       </c>
       <c r="G124">
-        <v>0.0007468020161620414</v>
+        <v>0.0008403039573632111</v>
       </c>
       <c r="H124">
-        <v>0.0006547661139092744</v>
-      </c>
-      <c r="I124">
-        <v>0.0006300337638872664</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.0007616548050707882</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.0005320699070871063</v>
+        <v>0.0005754996994517934</v>
       </c>
       <c r="C125">
-        <v>9.747080354609679E-05</v>
+        <v>0.0001049881304035363</v>
       </c>
       <c r="D125">
-        <v>0.000170384841324789</v>
+        <v>0.0001932175689777829</v>
       </c>
       <c r="E125">
-        <v>0.000170384841324789</v>
+        <v>0.0001932175689777829</v>
       </c>
       <c r="F125">
-        <v>0.0001946440434247918</v>
+        <v>0.0002239506496184925</v>
       </c>
       <c r="G125">
-        <v>0.0002707673054009862</v>
+        <v>0.0002788926878428666</v>
       </c>
       <c r="H125">
-        <v>0.0001721455503777959</v>
-      </c>
-      <c r="I125">
-        <v>0.0001257439238975191</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.000154311834846674</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.001107122817039402</v>
+        <v>0.001216982571541575</v>
       </c>
       <c r="C126">
-        <v>0.001436252897346007</v>
+        <v>0.001664434171715194</v>
       </c>
       <c r="D126">
-        <v>0.002177481828179089</v>
+        <v>0.002431686262345699</v>
       </c>
       <c r="E126">
-        <v>0.003868464126304308</v>
+        <v>0.004338299145609151</v>
       </c>
       <c r="F126">
-        <v>0.006752600071470443</v>
+        <v>0.006590448813358907</v>
       </c>
       <c r="G126">
-        <v>0.001450201701247343</v>
+        <v>0.001610850218379535</v>
       </c>
       <c r="H126">
-        <v>0.001259899018040593</v>
-      </c>
-      <c r="I126">
-        <v>0.001483263301277601</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.001420879597261412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.0001024291641933534</v>
+        <v>0.0001191498163947185</v>
       </c>
       <c r="C127">
-        <v>9.089448647738873E-05</v>
+        <v>0.0001057321227584522</v>
       </c>
       <c r="D127">
-        <v>7.744076109503758E-05</v>
+        <v>7.444771884811408E-05</v>
       </c>
       <c r="E127">
-        <v>7.744076109503758E-05</v>
+        <v>7.444771884811408E-05</v>
       </c>
       <c r="F127">
-        <v>3.721909882811378E-05</v>
+        <v>3.51102031895651E-05</v>
       </c>
       <c r="G127">
-        <v>0.0001543965911126745</v>
+        <v>0.0001429496351565865</v>
       </c>
       <c r="H127">
-        <v>8.774477947635112E-05</v>
-      </c>
-      <c r="I127">
-        <v>6.542878198377015E-05</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.0001020682316099867</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.001515535558528034</v>
+        <v>0.001721210394201233</v>
       </c>
       <c r="C128">
-        <v>0.001174426575061046</v>
+        <v>0.001346669512705215</v>
       </c>
       <c r="D128">
-        <v>0.002073919356659203</v>
+        <v>0.002225025844595162</v>
       </c>
       <c r="E128">
-        <v>0.00276009599443524</v>
+        <v>0.002877354495186946</v>
       </c>
       <c r="F128">
-        <v>0.009305244607742709</v>
+        <v>0.009808641718491825</v>
       </c>
       <c r="G128">
-        <v>0.001302437388901655</v>
+        <v>0.001491038733369903</v>
       </c>
       <c r="H128">
-        <v>0.001599619296593918</v>
-      </c>
-      <c r="I128">
-        <v>0.001468116767169311</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.001774651229938985</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.001234938473700814</v>
+        <v>0.001384309799767223</v>
       </c>
       <c r="C129">
-        <v>0.001176766607972203</v>
+        <v>0.001351727474454857</v>
       </c>
       <c r="D129">
-        <v>0.001359691291735746</v>
+        <v>0.001562949682648553</v>
       </c>
       <c r="E129">
-        <v>0.001735875277341468</v>
+        <v>0.002000545044566734</v>
       </c>
       <c r="F129">
-        <v>0.007721999368431979</v>
+        <v>0.007726770802044764</v>
       </c>
       <c r="G129">
-        <v>0.0009773190716458274</v>
+        <v>0.001131249160403804</v>
       </c>
       <c r="H129">
-        <v>0.001241618409943974</v>
-      </c>
-      <c r="I129">
-        <v>0.001218026096632402</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.001395683505814277</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.0009590730112105731</v>
+        <v>0.001108139118630016</v>
       </c>
       <c r="C130">
-        <v>0.001317343558188242</v>
+        <v>0.001510431678988799</v>
       </c>
       <c r="D130">
-        <v>0.001555903483100135</v>
+        <v>0.001804815849424922</v>
       </c>
       <c r="E130">
-        <v>0.003240943617712857</v>
+        <v>0.003450928262313141</v>
       </c>
       <c r="F130">
-        <v>0.004936749648885882</v>
+        <v>0.005097446945545521</v>
       </c>
       <c r="G130">
-        <v>0.001098589684194074</v>
+        <v>0.001177452165237808</v>
       </c>
       <c r="H130">
-        <v>0.0009288332430438198</v>
-      </c>
-      <c r="I130">
-        <v>0.0009808067039368811</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.001038888140026002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5.313444611936402E-05</v>
+        <v>6.162003262156159E-05</v>
       </c>
       <c r="C131">
-        <v>5.524108760134846E-05</v>
+        <v>6.425836900561081E-05</v>
       </c>
       <c r="D131">
-        <v>4.049564099847676E-05</v>
+        <v>3.965585627502379E-05</v>
       </c>
       <c r="E131">
-        <v>4.049564099847676E-05</v>
+        <v>3.965585627502379E-05</v>
       </c>
       <c r="F131">
-        <v>6.160908986053607E-05</v>
+        <v>6.348181750969289E-05</v>
       </c>
       <c r="G131">
-        <v>7.864898044965282E-05</v>
+        <v>7.97043915018314E-05</v>
       </c>
       <c r="H131">
-        <v>5.52243931376013E-05</v>
-      </c>
-      <c r="I131">
-        <v>3.389726338637731E-05</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>5.986872337827212E-05</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.001244891565332578</v>
+        <v>0.001395887716163089</v>
       </c>
       <c r="C132">
-        <v>0.001184884859517006</v>
+        <v>0.00136117101633549</v>
       </c>
       <c r="D132">
-        <v>0.001360401900519703</v>
+        <v>0.001563776297071007</v>
       </c>
       <c r="E132">
-        <v>0.001736585886125424</v>
+        <v>0.002001371658989188</v>
       </c>
       <c r="F132">
-        <v>0.007746044232140267</v>
+        <v>0.007732463254020448</v>
       </c>
       <c r="G132">
-        <v>0.0009684351728899189</v>
+        <v>0.001119496122624974</v>
       </c>
       <c r="H132">
-        <v>0.001246790091177889</v>
-      </c>
-      <c r="I132">
-        <v>0.001238397115257515</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.001401699454945222</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.0001024291641933534</v>
+        <v>0.0001191498163947185</v>
       </c>
       <c r="C133">
-        <v>9.329312582686668E-05</v>
+        <v>0.0001085223357776373</v>
       </c>
       <c r="D133">
-        <v>8.212717440702495E-05</v>
+        <v>7.989918091940674E-05</v>
       </c>
       <c r="E133">
-        <v>8.212717440702495E-05</v>
+        <v>7.989918091940674E-05</v>
       </c>
       <c r="F133">
-        <v>3.721909882811378E-05</v>
+        <v>3.51102031895651E-05</v>
       </c>
       <c r="G133">
-        <v>0.0001625955410864315</v>
+        <v>0.0001429496351565865</v>
       </c>
       <c r="H133">
-        <v>9.47189667508479E-05</v>
-      </c>
-      <c r="I133">
-        <v>7.362773195752719E-05</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.000110180942733387</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.001515422281193617</v>
+        <v>0.001718957338122326</v>
       </c>
       <c r="C134">
-        <v>0.001169499351007134</v>
+        <v>0.001350541903088819</v>
       </c>
       <c r="D134">
-        <v>0.002069016285436136</v>
+        <v>0.002228859769775214</v>
       </c>
       <c r="E134">
-        <v>0.002755192923212173</v>
+        <v>0.002881188420366998</v>
       </c>
       <c r="F134">
-        <v>0.009427320451437389</v>
+        <v>0.009946910937729444</v>
       </c>
       <c r="G134">
-        <v>0.001419372156239281</v>
+        <v>0.001627062896523829</v>
       </c>
       <c r="H134">
-        <v>0.001608231410925833</v>
-      </c>
-      <c r="I134">
-        <v>0.001452454596575148</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.001780066024228062</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.0006404804135580996</v>
+        <v>0.0007450369891758312</v>
       </c>
       <c r="C135">
-        <v>0.0006294870898098966</v>
+        <v>0.0007322490245937327</v>
       </c>
       <c r="D135">
-        <v>0.0007606889844372062</v>
+        <v>0.0008618672602935578</v>
       </c>
       <c r="E135">
-        <v>0.001011478308174353</v>
+        <v>0.001153597501572345</v>
       </c>
       <c r="F135">
-        <v>0.00449797424108472</v>
+        <v>0.004553528768691749</v>
       </c>
       <c r="G135">
-        <v>0.0007532372858114549</v>
+        <v>0.0008477897735037943</v>
       </c>
       <c r="H135">
-        <v>0.0006617403011837711</v>
-      </c>
-      <c r="I135">
-        <v>0.0006474565656173338</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.0007697675161941885</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.0001020394719688747</v>
+        <v>0.0001139500320238267</v>
       </c>
       <c r="C136">
-        <v>9.938681975756746E-05</v>
+        <v>0.0001075095959405275</v>
       </c>
       <c r="D136">
-        <v>8.274116899116926E-05</v>
+        <v>7.94486325173559E-05</v>
       </c>
       <c r="E136">
-        <v>8.274116899116926E-05</v>
+        <v>7.94486325173559E-05</v>
       </c>
       <c r="F136">
-        <v>7.104754146405115E-05</v>
+        <v>7.427292575946469E-05</v>
       </c>
       <c r="G136">
-        <v>0.0003214812840957078</v>
+        <v>0.000317036769243675</v>
       </c>
       <c r="H136">
-        <v>9.4139116474506E-05</v>
-      </c>
-      <c r="I136">
-        <v>9.641222495497707E-05</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.0001091042406426629</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6.017582763644958E-05</v>
+        <v>6.753073328514617E-05</v>
       </c>
       <c r="C137">
-        <v>5.812210380941753E-05</v>
+        <v>6.760970606009002E-05</v>
       </c>
       <c r="D137">
-        <v>6.025828115593816E-05</v>
+        <v>5.310729861353802E-05</v>
       </c>
       <c r="E137">
-        <v>6.025828115593816E-05</v>
+        <v>5.310729861353802E-05</v>
       </c>
       <c r="F137">
-        <v>6.160908986053607E-05</v>
+        <v>6.348181750969289E-05</v>
       </c>
       <c r="G137">
-        <v>8.864360151904285E-05</v>
+        <v>9.133061694322693E-05</v>
       </c>
       <c r="H137">
-        <v>6.039493307310484E-05</v>
-      </c>
-      <c r="I137">
-        <v>5.225534169653091E-05</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>6.588334489584124E-05</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.0005098744691658276</v>
+        <v>0.0005798803209567894</v>
       </c>
       <c r="C138">
-        <v>0.0007844614480741895</v>
+        <v>0.0008903455106105358</v>
       </c>
       <c r="D138">
-        <v>0.001677767059033539</v>
+        <v>0.001930871528063988</v>
       </c>
       <c r="E138">
-        <v>0.001720888962633008</v>
+        <v>0.001840106352369969</v>
       </c>
       <c r="F138">
-        <v>0.004211611212041761</v>
+        <v>0.004247630302722065</v>
       </c>
       <c r="G138">
-        <v>0.0007326486794104176</v>
+        <v>0.0008172345170297504</v>
       </c>
       <c r="H138">
-        <v>0.0008517498987381112</v>
-      </c>
-      <c r="I138">
-        <v>0.0007796928435670576</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.0009882687411592963</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.0001020394719688747</v>
+        <v>0.0001139500320238267</v>
       </c>
       <c r="C139">
-        <v>9.86094344673877E-05</v>
+        <v>0.0001066053038642491</v>
       </c>
       <c r="D139">
-        <v>9.706298874825845E-05</v>
+        <v>8.693741376529328E-05</v>
       </c>
       <c r="E139">
-        <v>9.706298874825845E-05</v>
+        <v>8.693741376529328E-05</v>
       </c>
       <c r="F139">
-        <v>7.104754146405115E-05</v>
+        <v>7.427292575946469E-05</v>
       </c>
       <c r="G139">
-        <v>0.0003314759051650978</v>
+        <v>0.0003286629946850704</v>
       </c>
       <c r="H139">
-        <v>9.031927963958056E-05</v>
-      </c>
-      <c r="I139">
-        <v>0.0001120187918550197</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.0001048486115119053</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.0005278084825686129</v>
+        <v>0.0005670505021594624</v>
       </c>
       <c r="C140">
-        <v>0.0001048113030774957</v>
+        <v>0.0001135269536177424</v>
       </c>
       <c r="D140">
-        <v>0.0001872857676008783</v>
+        <v>0.000194169077176874</v>
       </c>
       <c r="E140">
-        <v>0.0001872857676008783</v>
+        <v>0.000194169077176874</v>
       </c>
       <c r="F140">
-        <v>0.0001946440434247918</v>
+        <v>0.0002239506496184925</v>
       </c>
       <c r="G140">
-        <v>0.0002807619264703762</v>
+        <v>0.0002905189132842622</v>
       </c>
       <c r="H140">
-        <v>0.0001700403248637763</v>
-      </c>
-      <c r="I140">
-        <v>0.0001627369746214504</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.0001497398655692517</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.0001014646427778277</v>
+        <v>0.0001084907890247532</v>
       </c>
       <c r="C141">
-        <v>0.0001133857373645767</v>
+        <v>0.0001179721283655749</v>
       </c>
       <c r="D141">
-        <v>5.08196359438861E-05</v>
+        <v>4.040702310803141E-05</v>
       </c>
       <c r="E141">
-        <v>5.08196359438861E-05</v>
+        <v>4.040702310803141E-05</v>
       </c>
       <c r="F141">
-        <v>9.81116287163403E-05</v>
+        <v>9.849306937876464E-05</v>
       </c>
       <c r="G141">
-        <v>0.0002215076853788997</v>
+        <v>0.0002210164979361576</v>
       </c>
       <c r="H141">
-        <v>0.0001053815917781702</v>
-      </c>
-      <c r="I141">
-        <v>0.0001133684645385929</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.0001038761226015221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6.073099931378557E-05</v>
+        <v>6.817653576575786E-05</v>
       </c>
       <c r="C142">
-        <v>5.812210380941753E-05</v>
+        <v>6.760970606009002E-05</v>
       </c>
       <c r="D142">
-        <v>7.933371265110902E-05</v>
+        <v>6.612571038414359E-05</v>
       </c>
       <c r="E142">
-        <v>7.933371265110902E-05</v>
+        <v>6.612571038414359E-05</v>
       </c>
       <c r="F142">
-        <v>6.160908986053607E-05</v>
+        <v>6.348181750969289E-05</v>
       </c>
       <c r="G142">
-        <v>9.553856345634124E-05</v>
+        <v>9.935116933198945E-05</v>
       </c>
       <c r="H142">
-        <v>7.532766021209293E-05</v>
-      </c>
-      <c r="I142">
-        <v>6.802334393325018E-05</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>8.325381356767816E-05</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.0001080655390251355</v>
+        <v>0.0001257063195389147</v>
       </c>
       <c r="C143">
-        <v>0.0001070015827892211</v>
+        <v>0.0001244686743122835</v>
       </c>
       <c r="D143">
-        <v>0.0001246886192237357</v>
+        <v>0.0001107002423356847</v>
       </c>
       <c r="E143">
-        <v>0.0001246886192237357</v>
+        <v>0.0001107002423356847</v>
       </c>
       <c r="F143">
-        <v>3.721909882811378E-05</v>
+        <v>3.51102031895651E-05</v>
       </c>
       <c r="G143">
-        <v>0.0001794844971198106</v>
+        <v>0.0001625956836611414</v>
       </c>
       <c r="H143">
-        <v>0.0001114421663725205</v>
-      </c>
-      <c r="I143">
-        <v>0.0001057936341417606</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.0001296341753825455</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.001512041961368284</v>
+        <v>0.001715025187010195</v>
       </c>
       <c r="C144">
-        <v>0.001156657714421624</v>
+        <v>0.001335492878986146</v>
       </c>
       <c r="D144">
-        <v>0.002073857592145565</v>
+        <v>0.002243662461802243</v>
       </c>
       <c r="E144">
-        <v>0.002771111842295879</v>
+        <v>0.002908877125572673</v>
       </c>
       <c r="F144">
-        <v>0.009521045945319906</v>
+        <v>0.01005593695421561</v>
       </c>
       <c r="G144">
-        <v>0.00140039347024384</v>
+        <v>0.001604985973303574</v>
       </c>
       <c r="H144">
-        <v>0.001658162494202007</v>
-      </c>
-      <c r="I144">
-        <v>0.001436782027838865</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.001838148269334861</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.0006528963822960516</v>
+        <v>0.0007594798430487855</v>
       </c>
       <c r="C145">
-        <v>0.0006431955467722511</v>
+        <v>0.0007481953631283789</v>
       </c>
       <c r="D145">
-        <v>0.000803277795975473</v>
+        <v>0.0009022375701873934</v>
       </c>
       <c r="E145">
-        <v>0.00105406711971262</v>
+        <v>0.001193967811466181</v>
       </c>
       <c r="F145">
-        <v>0.004505557550607113</v>
+        <v>0.004562350040202405</v>
       </c>
       <c r="G145">
-        <v>0.0007797992814196076</v>
+        <v>0.000878687968339768</v>
       </c>
       <c r="H145">
-        <v>0.0006860468104181551</v>
-      </c>
-      <c r="I145">
-        <v>0.0006632245678540531</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.0007980420204590665</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.0001109712001604876</v>
+        <v>0.0001290863247618608</v>
       </c>
       <c r="C146">
-        <v>0.0001005870484411802</v>
+        <v>0.0001170069784746793</v>
       </c>
       <c r="D146">
-        <v>0.0001329146224775528</v>
+        <v>0.0001202691262029715</v>
       </c>
       <c r="E146">
-        <v>0.0001329146224775528</v>
+        <v>0.0001202691262029715</v>
       </c>
       <c r="F146">
-        <v>3.721909882811378E-05</v>
+        <v>3.51102031895651E-05</v>
       </c>
       <c r="G146">
-        <v>0.0001660393739063343</v>
+        <v>0.0001544173634859368</v>
       </c>
       <c r="H146">
-        <v>0.0001050276320244795</v>
-      </c>
-      <c r="I146">
-        <v>9.937909979371963E-05</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.0001221724795449413</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.0001093742375523806</v>
+        <v>0.0001224821852331963</v>
       </c>
       <c r="C147">
-        <v>0.0001151421259727351</v>
+        <v>0.0001258369282809959</v>
       </c>
       <c r="D147">
-        <v>0.0001274671258746937</v>
+        <v>0.0001201819036002199</v>
       </c>
       <c r="E147">
-        <v>0.0001274671258746937</v>
+        <v>0.0001201819036002199</v>
       </c>
       <c r="F147">
-        <v>7.104754146405115E-05</v>
+        <v>7.427292575946469E-05</v>
       </c>
       <c r="G147">
-        <v>0.0003480432797038606</v>
+        <v>0.0003479349640796487</v>
       </c>
       <c r="H147">
-        <v>0.0001070424792612531</v>
-      </c>
-      <c r="I147">
-        <v>0.0001156690348586016</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.0001243018441610638</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.0006966139332807193</v>
+        <v>0.0007791086108586387</v>
       </c>
       <c r="C148">
-        <v>0.0009421128992889205</v>
+        <v>0.001070506081660778</v>
       </c>
       <c r="D148">
-        <v>0.001970261017860472</v>
+        <v>0.002243925958489045</v>
       </c>
       <c r="E148">
-        <v>0.003252469199559302</v>
+        <v>0.003469746081920165</v>
       </c>
       <c r="F148">
-        <v>0.003357583769375272</v>
+        <v>0.003739006780911532</v>
       </c>
       <c r="G148">
-        <v>0.001121468838604552</v>
+        <v>0.001197705394357412</v>
       </c>
       <c r="H148">
-        <v>0.0007762269533864869</v>
-      </c>
-      <c r="I148">
-        <v>0.0006279415030306197</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.0008643225944759496</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.001493719373861045</v>
+        <v>0.001731998497497269</v>
       </c>
       <c r="C149">
-        <v>0.001762681872861952</v>
+        <v>0.002018738980365244</v>
       </c>
       <c r="D149">
-        <v>0.001638834510324643</v>
+        <v>0.001906370642424281</v>
       </c>
       <c r="E149">
-        <v>0.002355436054557597</v>
+        <v>0.002739956132765733</v>
       </c>
       <c r="F149">
-        <v>0.01060027285528889</v>
+        <v>0.01069781946340558</v>
       </c>
       <c r="G149">
-        <v>0.001544639768854565</v>
+        <v>0.001787910948917836</v>
       </c>
       <c r="H149">
-        <v>0.001503695529708347</v>
-      </c>
-      <c r="I149">
-        <v>0.001447022683291532</v>
+        <v>0.001745010253457217</v>
       </c>
     </row>
   </sheetData>
